--- a/Images/CalculationSheet.xlsx
+++ b/Images/CalculationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repo\New folder\Permissible_Deviation\build-Permissible_Deviation-Desktop_Qt_5_15_1_MSVC2019_64bit-Debug\debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANISH\Downloads\Package_Permissible_Deviation\Package_Permissible_Deviation\Permissible_Deviation_installer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6ABE8-F08F-4689-B1C4-AFB61636B08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850F297-0FEE-43AD-BD5B-06B72703B640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24975" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13575" yWindow="3540" windowWidth="10425" windowHeight="9360" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1084,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1312,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="1">
         <f>AC7</f>
-        <v>0.29616680018784819</v>
+        <v>0.56978431271382779</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1367,7 +1369,7 @@
       </c>
       <c r="S5" s="6">
         <f>Sheet3!B3</f>
-        <v>68.193603515625</v>
+        <v>202</v>
       </c>
       <c r="T5" s="3"/>
     </row>
@@ -1513,19 +1515,19 @@
       </c>
       <c r="Z7" s="1">
         <f>MATCH(S5,W7:W14,1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="10">
         <f>INDEX($W$7:$X$14,$Z$7,1)</f>
-        <v>51.91338446621252</v>
+        <v>162.99228735484925</v>
       </c>
       <c r="AB7" s="1">
         <f>INDEX($W$7:$X$14,$Z$7,2)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AC7" s="1">
         <f>IFERROR((AB8-AB7)/(AA8-AA7)*(S5-AA7)+AB7,1)</f>
-        <v>0.29616680018784819</v>
+        <v>0.56978431271382779</v>
       </c>
       <c r="AD7" s="15">
         <f>AC7*(S2-S3)</f>
@@ -1603,15 +1605,15 @@
       </c>
       <c r="Z8" s="1">
         <f>Z7+1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="10">
         <f>INDEX($W$7:$X$14,$Z$8,1)</f>
-        <v>69.545339662554767</v>
+        <v>218.88982525153088</v>
       </c>
       <c r="AB8" s="10">
         <f>INDEX($W$7:$X$14,$Z$8,2)</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -5905,6 +5907,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="8">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -5960,11 +5963,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU72"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AU19" sqref="AU19"/>
+    <sheetView topLeftCell="X4" workbookViewId="0">
+      <selection activeCell="AT20" sqref="AT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
@@ -6634,7 +6644,7 @@
       </c>
       <c r="AK7">
         <f>Sheet3!B4</f>
-        <v>43.304298400878906</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -6739,7 +6749,7 @@
       </c>
       <c r="AK8">
         <f>AU10</f>
-        <v>0.15456263113476776</v>
+        <v>9.7745973876932471E-2</v>
       </c>
       <c r="AL8" s="30" t="s">
         <v>44</v>
@@ -6972,20 +6982,20 @@
         <v>47</v>
       </c>
       <c r="AR10">
-        <f>MATCH(AK7,AN13:AN17,1)</f>
-        <v>3</v>
+        <f>MATCH(AK7,AN13:AN21,1)</f>
+        <v>6</v>
       </c>
       <c r="AS10">
-        <f>INDEX($AN$13:$AO$17,$AR10,1)</f>
-        <v>27.538239455445083</v>
+        <f>INDEX(AN13:AO21,$AR10,1)</f>
+        <v>183.74522095176155</v>
       </c>
       <c r="AT10">
-        <f>INDEX($AN$13:$AO$17,$AR10,2)</f>
-        <v>0.17499999999999999</v>
+        <f>INDEX(AN13:AO21,$AR10,2)</f>
+        <v>0.1</v>
       </c>
       <c r="AU10" s="31">
         <f>(AT11-AT10)/(AS11-AS10)*(AK7-AS10)+AT10</f>
-        <v>0.15456263113476776</v>
+        <v>9.7745973876932471E-2</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -7107,15 +7117,15 @@
       </c>
       <c r="AR11">
         <f>AR10+1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AS11">
-        <f>INDEX($AN$13:$AO$17,$AR11,1)</f>
-        <v>46.824062216435145</v>
+        <f>INDEX(AN13:AO21,$AR11,1)</f>
+        <v>305.22637102420549</v>
       </c>
       <c r="AT11">
-        <f>INDEX($AN$13:$AO$17,$AR11,2)</f>
-        <v>0.15</v>
+        <f>INDEX(AN13:AO21,$AR11,2)</f>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -12206,13 +12216,8 @@
       <c r="AF72" s="27"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="16">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -12223,6 +12228,12 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12233,7 +12244,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12261,7 +12272,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="35">
-        <v>68.193603515625</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12269,7 +12280,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="35">
-        <v>43.304298400878906</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12278,7 +12289,7 @@
       </c>
       <c r="B5" s="36">
         <f>Sheet1!U4</f>
-        <v>0.29616680018784819</v>
+        <v>0.56978431271382779</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12287,10 +12298,11 @@
       </c>
       <c r="B6" s="36">
         <f>Sheet2!AK8</f>
-        <v>0.15456263113476776</v>
+        <v>9.7745973876932471E-2</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>

--- a/Images/CalculationSheet.xlsx
+++ b/Images/CalculationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANISH\Downloads\Package_Permissible_Deviation\Package_Permissible_Deviation\Permissible_Deviation_installer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850F297-0FEE-43AD-BD5B-06B72703B640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F90C2-1B4D-49F6-AE0E-9FED5D801380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13575" yWindow="3540" windowWidth="10425" windowHeight="9360" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -231,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +452,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -583,6 +589,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -615,13 +626,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>3745</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>501964</xdr:colOff>
+      <xdr:colOff>505622</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -653,8 +664,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2571750" y="0"/>
-          <a:ext cx="5378764" cy="4238625"/>
+          <a:off x="2861245" y="0"/>
+          <a:ext cx="5389187" cy="4235669"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1086,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD94"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,37 +1221,37 @@
         <v>58.765947147246536</v>
       </c>
       <c r="E3" s="2">
-        <v>5.2082277837781736E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F3" s="2">
         <v>82.481925264059882</v>
       </c>
       <c r="G3" s="2">
-        <v>5.1389920406209523E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H3" s="2">
         <v>147.27990601850905</v>
       </c>
       <c r="I3" s="2">
-        <v>5.3477011243599562E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J3" s="2">
         <v>237.722153238338</v>
       </c>
       <c r="K3" s="2">
-        <v>5.1499628738485417E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L3" s="2">
         <v>333.08930190864123</v>
       </c>
       <c r="M3" s="2">
-        <v>5.1938926503592588E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N3" s="2">
         <v>587.58526781693706</v>
       </c>
       <c r="O3" s="2">
-        <v>5.2824134650945098E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P3" s="2">
         <v>903.94826915062424</v>
@@ -1307,12 +1318,12 @@
       </c>
       <c r="S4" s="6">
         <f>Sheet3!B2</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="3"/>
-      <c r="U4" s="1">
+      <c r="U4" s="48">
         <f>AC7</f>
-        <v>0.56978431271382779</v>
+        <v>0.27424773662347413</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1369,7 +1380,7 @@
       </c>
       <c r="S5" s="6">
         <f>Sheet3!B3</f>
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="T5" s="3"/>
     </row>
@@ -1490,44 +1501,44 @@
       <c r="Q7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="1" t="e">
         <f>MATCH(S4,$A$3:$A$52,1)</f>
-        <v>22</v>
-      </c>
-      <c r="S7" s="10">
-        <f>INDEX($A$3:$B$52,$R$7,1)</f>
-        <v>0.49625936808293925</v>
-      </c>
-      <c r="T7" s="10">
-        <f>INDEX($A$3:$B$52,$R$7,2)</f>
-        <v>34.37829590880402</v>
-      </c>
-      <c r="U7" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="S7" s="10" t="e">
+        <f>INDEX($A$3:$B$54,$R$7,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T7" s="10" t="e">
+        <f>INDEX($A$3:$B$54,$R$7,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U7" s="1" t="e">
         <f>(T8-T7)/(S8-S7)*($S$4-S7)+T7</f>
-        <v>34.336960432001668</v>
+        <v>#N/A</v>
       </c>
       <c r="W7" s="1">
-        <f>U7</f>
-        <v>34.336960432001668</v>
+        <f>IFERROR(U7,0)</f>
+        <v>0</v>
       </c>
       <c r="X7" s="14">
         <v>0.2</v>
       </c>
       <c r="Z7" s="1">
         <f>MATCH(S5,W7:W14,1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="10">
         <f>INDEX($W$7:$X$14,$Z$7,1)</f>
-        <v>162.99228735484925</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
         <f>INDEX($W$7:$X$14,$Z$7,2)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AC7" s="1">
         <f>IFERROR((AB8-AB7)/(AA8-AA7)*(S5-AA7)+AB7,1)</f>
-        <v>0.56978431271382779</v>
+        <v>0.27424773662347413</v>
       </c>
       <c r="AD7" s="15">
         <f>AC7*(S2-S3)</f>
@@ -1584,36 +1595,36 @@
         <v>896.11078373689747</v>
       </c>
       <c r="Q8" s="8"/>
-      <c r="R8" s="1">
+      <c r="R8" s="1" t="e">
         <f>R7+1</f>
-        <v>23</v>
-      </c>
-      <c r="S8" s="10">
-        <f>INDEX($A$3:$B$52,$R$8,1)</f>
-        <v>0.52810311679171862</v>
-      </c>
-      <c r="T8" s="10">
-        <f>INDEX($A$3:$B$52,$R$8,2)</f>
-        <v>34.026409766238594</v>
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="10" t="e">
+        <f>INDEX($A$3:$B$54,$R$8,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T8" s="10" t="e">
+        <f>INDEX($A$3:$B$54,$R$8,2)</f>
+        <v>#N/A</v>
       </c>
       <c r="W8" s="1">
-        <f>U9</f>
-        <v>51.91338446621252</v>
+        <f>IFERROR(U9,0)</f>
+        <v>0</v>
       </c>
       <c r="X8" s="14">
         <v>0.25</v>
       </c>
       <c r="Z8" s="1">
         <f>Z7+1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA8" s="10">
         <f>INDEX($W$7:$X$14,$Z$8,1)</f>
-        <v>218.88982525153088</v>
+        <v>82.481925264059882</v>
       </c>
       <c r="AB8" s="10">
         <f>INDEX($W$7:$X$14,$Z$8,2)</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1668,25 +1679,25 @@
       <c r="Q9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="1" t="e">
         <f>MATCH(S4,$C$3:$C$83,1)</f>
-        <v>31</v>
-      </c>
-      <c r="S9" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="S9" s="10" t="e">
         <f>INDEX($C$3:$D$83,$R$9,1)</f>
-        <v>0.49160197699036567</v>
-      </c>
-      <c r="T9" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="T9" s="10" t="e">
         <f>INDEX($C$3:$D$83,$R$9,2)</f>
-        <v>52.106034151872969</v>
-      </c>
-      <c r="U9" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="U9" s="1" t="e">
         <f>(T10-T9)/(S10-S9)*($S$4-S9)+T9</f>
-        <v>51.91338446621252</v>
+        <v>#N/A</v>
       </c>
       <c r="W9" s="1">
-        <f>U11</f>
-        <v>69.545339662554767</v>
+        <f>IFERROR(U11,0)</f>
+        <v>82.481925264059882</v>
       </c>
       <c r="X9" s="14">
         <v>0.3</v>
@@ -1742,21 +1753,21 @@
         <v>883.23625738509884</v>
       </c>
       <c r="Q10" s="8"/>
-      <c r="R10" s="1">
+      <c r="R10" s="1" t="e">
         <f>R9+1</f>
-        <v>32</v>
-      </c>
-      <c r="S10" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="S10" s="10" t="e">
         <f>INDEX($C$3:$D$83,$R$10,1)</f>
-        <v>0.52268385474866574</v>
-      </c>
-      <c r="T10" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" s="10" t="e">
         <f>INDEX($C$3:$D$83,$R$10,2)</f>
-        <v>51.393019437218854</v>
+        <v>#N/A</v>
       </c>
       <c r="W10" s="1">
-        <f>U13</f>
-        <v>113.88651005807466</v>
+        <f>IFERROR(U13,0)</f>
+        <v>147.27990601850905</v>
       </c>
       <c r="X10" s="14">
         <v>0.4</v>
@@ -1816,23 +1827,23 @@
       </c>
       <c r="R11" s="1">
         <f>MATCH(S4,$E$3:$E$89,1)</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="S11" s="10">
         <f>INDEX($E$3:$F$89,$R$11,1)</f>
-        <v>0.49717604690627032</v>
+        <v>0.05</v>
       </c>
       <c r="T11" s="10">
         <f>INDEX($E$3:$F$89,$R$11,2)</f>
-        <v>69.661292093761844</v>
+        <v>82.481925264059882</v>
       </c>
       <c r="U11" s="1">
         <f>(T12-T11)/(S12-S11)*($S$4-S11)+T11</f>
-        <v>69.545339662554767</v>
+        <v>82.481925264059882</v>
       </c>
       <c r="W11" s="1">
-        <f>U15</f>
-        <v>162.99228735484925</v>
+        <f>IFERROR(U15,0)</f>
+        <v>237.722153238338</v>
       </c>
       <c r="X11" s="14">
         <v>0.5</v>
@@ -1890,19 +1901,19 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="1">
         <f>R11+1</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="S12" s="11">
         <f>INDEX($E$3:$F$89,$R$12,1)</f>
-        <v>0.5276786637496248</v>
+        <v>5.5474378600660415E-2</v>
       </c>
       <c r="T12" s="10">
         <f>INDEX($E$3:$F$89,$R$12,2)</f>
-        <v>68.408844739371204</v>
+        <v>82.496485385812164</v>
       </c>
       <c r="W12" s="1">
-        <f>U17</f>
-        <v>218.88982525153088</v>
+        <f>IFERROR(U17,0)</f>
+        <v>333.08930190864123</v>
       </c>
       <c r="X12" s="14">
         <v>0.6</v>
@@ -1962,23 +1973,23 @@
       </c>
       <c r="R13" s="1">
         <f>MATCH(S4,$G$3:$G$90,1)</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="S13" s="10">
         <f>INDEX($G$3:$H$90,$R$13,1)</f>
-        <v>0.48321463495572481</v>
+        <v>0.05</v>
       </c>
       <c r="T13" s="10">
         <f>INDEX($G$3:$H$90,$R$13,2)</f>
-        <v>115.0954645313598</v>
+        <v>147.27990601850905</v>
       </c>
       <c r="U13" s="1">
         <f>(T14-T13)/(S14-S13)*($S$4-S13)+T13</f>
-        <v>113.88651005807466</v>
+        <v>147.27990601850905</v>
       </c>
       <c r="W13" s="1">
-        <f>U19</f>
-        <v>347.07952030093804</v>
+        <f>IFERROR(U19,0)</f>
+        <v>587.58526781693706</v>
       </c>
       <c r="X13" s="14">
         <v>0.8</v>
@@ -2036,19 +2047,19 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="1">
         <f>R13+1</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="S14" s="10">
         <f>INDEX($G$3:$H$90,$R$14,1)</f>
-        <v>0.51330916305057306</v>
+        <v>5.4737801149340959E-2</v>
       </c>
       <c r="T14" s="10">
         <f>INDEX($G$3:$H$90,$R$14,2)</f>
-        <v>112.92792666335968</v>
+        <v>148.20768078570879</v>
       </c>
       <c r="W14" s="1">
-        <f>U21</f>
-        <v>484.27349628446279</v>
+        <f>IFERROR(U21,0)</f>
+        <v>903.94826915062424</v>
       </c>
       <c r="X14" s="14">
         <v>1</v>
@@ -2108,19 +2119,19 @@
       </c>
       <c r="R15" s="1">
         <f>MATCH(S4,$I$3:$I$90,1)</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="S15" s="10">
         <f>INDEX($I$3:$J$90,$R$15,1)</f>
-        <v>0.49393976153437535</v>
+        <v>0.05</v>
       </c>
       <c r="T15" s="10">
         <f>INDEX($I$3:$J$90,$R$15,2)</f>
-        <v>163.70377777460857</v>
+        <v>237.722153238338</v>
       </c>
       <c r="U15" s="1">
         <f>(T16-T15)/(S16-S15)*($S$4-S15)+T15</f>
-        <v>162.99228735484925</v>
+        <v>237.722153238338</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2175,18 +2186,18 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="1">
         <f>R15+1</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="S16" s="10">
         <f>INDEX($I$3:$J$90,$R$16,1)</f>
-        <v>0.52377983819152285</v>
+        <v>5.6959950511365112E-2</v>
       </c>
       <c r="T16" s="10">
         <f>INDEX($I$3:$J$90,$R$16,2)</f>
-        <v>160.20046205743475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>237.76411714113596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.32080360575789557</v>
       </c>
@@ -2240,22 +2251,22 @@
       </c>
       <c r="R17" s="1">
         <f>MATCH(S4,$K$3:$K$92,1)</f>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="S17" s="10">
         <f>INDEX($K$3:$L$92,$R$17,1)</f>
-        <v>0.49910389996472954</v>
+        <v>0.05</v>
       </c>
       <c r="T17" s="10">
         <f>INDEX($K$3:$L$92,$R$17,2)</f>
-        <v>219.04825290148406</v>
+        <v>333.08930190864123</v>
       </c>
       <c r="U17" s="1">
         <f>(T18-T17)/(S18-S17)*($S$4-S17)+T17</f>
-        <v>218.88982525153088</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>333.08930190864123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.34139189899134637</v>
       </c>
@@ -2307,18 +2318,18 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="1">
         <f>R17+1</f>
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="S18" s="10">
         <f>INDEX($K$3:$L$92,$R$18,1)</f>
-        <v>0.52878873480206712</v>
+        <v>5.480685603723439E-2</v>
       </c>
       <c r="T18" s="10">
         <f>INDEX($K$3:$L$92,$R$18,2)</f>
-        <v>213.80006805891983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>335.77173461877192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.363301492268371</v>
       </c>
@@ -2372,22 +2383,23 @@
       </c>
       <c r="R19" s="1">
         <f>MATCH(S4,$M$3:$M$93,1)</f>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="S19" s="10">
         <f>INDEX($M$3:$N$93,$R$19,1)</f>
-        <v>0.4927548369003798</v>
+        <v>0.05</v>
       </c>
       <c r="T19" s="10">
         <f>INDEX($M$3:$N$93,$R$19,2)</f>
-        <v>349.22148760032269</v>
+        <v>587.58526781693706</v>
       </c>
       <c r="U19" s="1">
         <f>(T20-T19)/(S20-S19)*($S$4-S19)+T19</f>
-        <v>347.07952030093804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>587.58526781693706</v>
+      </c>
+      <c r="X19" s="47"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.38695613987872768</v>
       </c>
@@ -2439,18 +2451,18 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="1">
         <f>R19+1</f>
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="S20" s="10">
         <f>INDEX($M$3:$N$93,$R$20,1)</f>
-        <v>0.52206086374805827</v>
+        <v>5.5321438758536096E-2</v>
       </c>
       <c r="T20" s="10">
         <f>INDEX($M$3:$N$93,$R$20,2)</f>
-        <v>340.55742437365677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>586.66510067629781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.41178898263261798</v>
       </c>
@@ -2504,22 +2516,22 @@
       </c>
       <c r="R21" s="1">
         <f>MATCH(S4,$O$3:$O$94,1)</f>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="S21" s="10">
         <f>INDEX($O$3:$P$94,$R$21,1)</f>
-        <v>0.49060086105419326</v>
+        <v>0.05</v>
       </c>
       <c r="T21" s="10">
         <f>INDEX($O$3:$P$94,$R$21,2)</f>
-        <v>488.51189520181811</v>
+        <v>903.94826915062424</v>
       </c>
       <c r="U21" s="1">
         <f>(T22-T21)/(S22-S21)*($S$4-S21)+T21</f>
-        <v>484.27349628446279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>903.94826915062424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.43821447032479555</v>
       </c>
@@ -2571,18 +2583,18 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="1">
         <f>R21+1</f>
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="S22" s="10">
         <f>INDEX($O$3:$P$94,$R$22,1)</f>
-        <v>0.51932111246733059</v>
+        <v>5.6264424100926448E-2</v>
       </c>
       <c r="T22" s="10">
         <f>INDEX($O$3:$P$94,$R$22,2)</f>
-        <v>475.56093414065413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>903.31991242840922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.46633574500793407</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>731.34497162941329</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.49625936808293925</v>
       </c>
@@ -2682,7 +2694,7 @@
         <v>716.3182124105557</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.52810311679171862</v>
       </c>
@@ -2732,7 +2744,7 @@
         <v>700.9887625582079</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.5619876400673437</v>
       </c>
@@ -2782,7 +2794,7 @@
         <v>685.98904978468886</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.59804356081067545</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>671.89585432608931</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.63529540525094963</v>
       </c>
@@ -2882,7 +2894,7 @@
         <v>656.9440344688436</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.67545778337230511</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>641.76515666939906</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.71752681795744699</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>626.93699113639093</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.76154660350159153</v>
       </c>
@@ -3032,7 +3044,7 @@
         <v>612.98564898572852</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0.80897375774330893</v>
       </c>
@@ -4083,8 +4095,12 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2">
+        <v>25</v>
+      </c>
       <c r="C53" s="2">
         <v>1.6186105498370524</v>
       </c>
@@ -4129,8 +4145,12 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="B54" s="2">
+        <v>25</v>
+      </c>
       <c r="C54" s="2">
         <v>1.7148677353477393</v>
       </c>
@@ -5724,7 +5744,7 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
-        <v>9.8222827868213898</v>
+        <v>10</v>
       </c>
       <c r="F89" s="2">
         <v>29.94321124348059</v>
@@ -5768,13 +5788,13 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2">
-        <v>9.6679296003882609</v>
+        <v>10</v>
       </c>
       <c r="H90" s="2">
         <v>40.83925812135211</v>
       </c>
       <c r="I90" s="2">
-        <v>9.4896764968966121</v>
+        <v>10</v>
       </c>
       <c r="J90" s="2">
         <v>52.768866818997317</v>
@@ -5840,7 +5860,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2">
-        <v>9.8586992602715746</v>
+        <v>10</v>
       </c>
       <c r="L92" s="2">
         <v>63.102558991282834</v>
@@ -5872,7 +5892,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2">
-        <v>9.875439241760585</v>
+        <v>10</v>
       </c>
       <c r="N93" s="2">
         <v>86.369884430047534</v>
@@ -5900,7 +5920,7 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2">
-        <v>10.055890547637951</v>
+        <v>10</v>
       </c>
       <c r="P94" s="2">
         <v>107.87966675620646</v>
@@ -5956,24 +5976,35 @@
     <hyperlink ref="AB8" r:id="rId35" display="=@INDEX($W$7:$X$14,$Z$8,2)" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AU72"/>
+  <dimension ref="A1:AU104"/>
   <sheetViews>
-    <sheetView topLeftCell="X4" workbookViewId="0">
-      <selection activeCell="AT20" sqref="AT20"/>
+    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ38" sqref="AJ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6153,93 +6184,94 @@
       <c r="C3" s="21">
         <v>0.91923029521752797</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="23">
         <v>10.266162891446687</v>
       </c>
-      <c r="E3" s="21">
-        <v>0.41229767328950195</v>
-      </c>
-      <c r="F3" s="22">
-        <v>10.0184821276784</v>
-      </c>
-      <c r="G3" s="21">
-        <v>5.0107104459091618E-2</v>
+      <c r="E3" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="46">
+        <v>10</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.05</v>
       </c>
       <c r="H3" s="22">
         <v>16.231818048275187</v>
       </c>
       <c r="I3" s="23">
-        <v>4.9902157043977456E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J3" s="22">
         <v>22.156148162414272</v>
       </c>
       <c r="K3" s="23">
-        <v>4.9498093578206281E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L3" s="22">
         <v>29.034041429342423</v>
       </c>
       <c r="M3" s="23">
-        <v>4.9394672864088024E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N3" s="22">
         <v>42.347453124591439</v>
       </c>
       <c r="O3" s="23">
-        <v>4.9741054114612875E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P3" s="22">
         <v>64.664736942432171</v>
       </c>
       <c r="Q3" s="23">
-        <v>4.9188517495278507E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R3" s="22">
         <v>89.721150597791976</v>
       </c>
       <c r="S3" s="23">
-        <v>4.9635601011635909E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="22">
         <v>110.81129943414297</v>
       </c>
       <c r="U3" s="23">
-        <v>5.0186797554292395E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V3" s="22">
         <v>155.31163397677494</v>
       </c>
       <c r="W3" s="23">
-        <v>5.0133219389316822E-2</v>
+        <v>0.05</v>
       </c>
       <c r="X3" s="22">
         <v>210.9166558108476</v>
       </c>
       <c r="Y3" s="23">
-        <v>5.0179928862295831E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="22">
         <v>318.48438721399742</v>
       </c>
       <c r="AA3" s="23">
-        <v>4.9723814296649078E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AB3" s="22">
         <v>398.62754808960227</v>
       </c>
       <c r="AC3" s="23">
-        <v>5.0327304315845867E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AD3" s="22">
         <v>529.30454995644266</v>
       </c>
       <c r="AE3" s="23">
-        <v>5.0121446497565753E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AF3" s="22">
         <v>723.22884559455485</v>
       </c>
+      <c r="AH3" s="29"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -6251,16 +6283,16 @@
       <c r="C4" s="19">
         <v>0.97073781367350531</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="46">
         <v>10.845233659029933</v>
       </c>
-      <c r="E4" s="19">
-        <v>0.43190062351870045</v>
-      </c>
-      <c r="F4" s="20">
-        <v>10.109055196676726</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="E4" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="46">
+        <v>10</v>
+      </c>
+      <c r="G4" s="46">
         <v>5.4104060956307952E-2</v>
       </c>
       <c r="H4" s="20">
@@ -6338,6 +6370,7 @@
       <c r="AF4" s="20">
         <v>731.22314895555587</v>
       </c>
+      <c r="AH4" s="29"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -6353,10 +6386,10 @@
         <v>11.539387156484898</v>
       </c>
       <c r="E5" s="19">
-        <v>0.45106669720246706</v>
+        <v>0.41229767328950195</v>
       </c>
       <c r="F5" s="20">
-        <v>10.242274182525071</v>
+        <v>10.0184821276784</v>
       </c>
       <c r="G5" s="19">
         <v>5.931147422366894E-2</v>
@@ -6451,10 +6484,10 @@
         <v>12.190754221421663</v>
       </c>
       <c r="E6" s="19">
-        <v>0.47490381758389882</v>
+        <v>0.43190062351870045</v>
       </c>
       <c r="F6" s="20">
-        <v>10.440629297853183</v>
+        <v>10.109055196676726</v>
       </c>
       <c r="G6" s="19">
         <v>6.3591506026581188E-2</v>
@@ -6533,13 +6566,6 @@
       </c>
       <c r="AF6" s="20">
         <v>760.54425397576506</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK6">
-        <f>Sheet3!B2</f>
-        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -6556,10 +6582,10 @@
         <v>12.826597240690107</v>
       </c>
       <c r="E7" s="19">
-        <v>0.50456534479000337</v>
+        <v>0.45106669720246706</v>
       </c>
       <c r="F7" s="20">
-        <v>10.664183942359521</v>
+        <v>10.242274182525071</v>
       </c>
       <c r="G7" s="19">
         <v>6.8664089763448816E-2</v>
@@ -6638,13 +6664,6 @@
       </c>
       <c r="AF7" s="20">
         <v>780.0358777291674</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK7">
-        <f>Sheet3!B4</f>
-        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -6661,10 +6680,10 @@
         <v>13.661497485576389</v>
       </c>
       <c r="E8" s="19">
-        <v>0.53716220693804773</v>
+        <v>0.47490381758389882</v>
       </c>
       <c r="F8" s="20">
-        <v>11.004120508412454</v>
+        <v>10.440629297853183</v>
       </c>
       <c r="G8" s="19">
         <v>7.3248251915781826E-2</v>
@@ -6745,14 +6764,11 @@
         <v>804.8721997895808</v>
       </c>
       <c r="AJ8" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="AK8">
-        <f>AU10</f>
-        <v>9.7745973876932471E-2</v>
-      </c>
-      <c r="AL8" s="30" t="s">
-        <v>44</v>
+        <f>Sheet3!B2</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -6769,10 +6785,10 @@
         <v>14.491377577916282</v>
       </c>
       <c r="E9" s="19">
-        <v>0.56956002237714398</v>
+        <v>0.50456534479000337</v>
       </c>
       <c r="F9" s="20">
-        <v>11.320375265132236</v>
+        <v>10.664183942359521</v>
       </c>
       <c r="G9" s="19">
         <v>7.9491486002576495E-2</v>
@@ -6852,14 +6868,12 @@
       <c r="AF9" s="20">
         <v>842.45154540816225</v>
       </c>
-      <c r="AH9" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN9" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR9" s="31" t="s">
-        <v>48</v>
+      <c r="AJ9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK9">
+        <f>Sheet3!B4</f>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -6876,10 +6890,10 @@
         <v>15.372213221840941</v>
       </c>
       <c r="E10" s="19">
-        <v>0.59965777163353162</v>
+        <v>0.53716220693804773</v>
       </c>
       <c r="F10" s="20">
-        <v>11.6698236240711</v>
+        <v>11.004120508412454</v>
       </c>
       <c r="G10" s="19">
         <v>8.557276804001189E-2</v>
@@ -6959,43 +6973,15 @@
       <c r="AF10" s="20">
         <v>881.82358641336589</v>
       </c>
-      <c r="AI10" t="e">
-        <f>MATCH($AK$6,$A$3:$A$34,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ10" t="e">
-        <f>INDEX($A$3:$B$34,$AI10,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK10" t="e">
-        <f>INDEX($A$3:$B$34,$AI10,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL10" t="e">
-        <f>(AK11-AK10)/(AJ11-AJ10)*($AK$6-AJ10)+AK10</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR10">
-        <f>MATCH(AK7,AN13:AN21,1)</f>
-        <v>6</v>
-      </c>
-      <c r="AS10">
-        <f>INDEX(AN13:AO21,$AR10,1)</f>
-        <v>183.74522095176155</v>
-      </c>
-      <c r="AT10">
-        <f>INDEX(AN13:AO21,$AR10,2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="AU10" s="31">
-        <f>(AT11-AT10)/(AS11-AS10)*(AK7-AS10)+AT10</f>
-        <v>9.7745973876932471E-2</v>
+      <c r="AJ10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK10">
+        <f>AU12</f>
+        <v>3.6121258887860927E-2</v>
+      </c>
+      <c r="AL10" s="30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -7012,10 +6998,10 @@
         <v>16.540227284518341</v>
       </c>
       <c r="E11" s="19">
-        <v>0.62626594314817319</v>
+        <v>0.56956002237714398</v>
       </c>
       <c r="F11" s="20">
-        <v>12.055006533898043</v>
+        <v>11.320375265132236</v>
       </c>
       <c r="G11" s="19">
         <v>9.0459962103812866E-2</v>
@@ -7095,37 +7081,14 @@
       <c r="AF11" s="20">
         <v>913.68934169340389</v>
       </c>
-      <c r="AI11" t="e">
-        <f>AI10+1</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ11" t="e">
-        <f>INDEX($A$3:$B$34,$AI11,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK11" t="e">
-        <f>INDEX($A$3:$B$34,$AI11,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN11">
-        <f>IFERROR(AL10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <f>0.39</f>
-        <v>0.39</v>
-      </c>
-      <c r="AR11">
-        <f>AR10+1</f>
-        <v>7</v>
-      </c>
-      <c r="AS11">
-        <f>INDEX(AN13:AO21,$AR11,1)</f>
-        <v>305.22637102420549</v>
-      </c>
-      <c r="AT11">
-        <f>INDEX(AN13:AO21,$AR11,2)</f>
-        <v>8.5000000000000006E-2</v>
+      <c r="AH11" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN11" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR11" s="31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -7142,10 +7105,10 @@
         <v>17.833195356426032</v>
       </c>
       <c r="E12" s="19">
-        <v>0.65670203024104479</v>
+        <v>0.59965777163353162</v>
       </c>
       <c r="F12" s="20">
-        <v>12.452707311320639</v>
+        <v>11.6698236240711</v>
       </c>
       <c r="G12" s="19">
         <v>9.6596797095546014E-2</v>
@@ -7226,27 +7189,42 @@
         <v>950.61847692978984</v>
       </c>
       <c r="AI12" t="e">
-        <f>MATCH($AK$6,$C$3:$C$61,1)</f>
+        <f>MATCH($AK$8,$A$3:$A$34,1)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ12" t="e">
-        <f>INDEX($C$3:$D$61,$AI12,1)</f>
+        <f>INDEX($A$3:$B$34,$AI12,1)</f>
         <v>#N/A</v>
       </c>
       <c r="AK12" t="e">
-        <f>INDEX($C$3:$D$61,$AI12,2)</f>
+        <f>INDEX($A$3:$B$34,$AI12,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AL12" t="e">
-        <f>(AK13-AK12)/(AJ13-AJ12)*($AK$6-AJ12)+AK12</f>
+        <f>(AK13-AK12)/(AJ13-AJ12)*($AK$8-AJ12)+AK12</f>
         <v>#N/A</v>
       </c>
-      <c r="AN12">
-        <f>IFERROR(AL11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0.03</v>
+      <c r="AN12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR12">
+        <f>_xlfn.XMATCH(AK9,AN13:AN28,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="AS12">
+        <f>INDEX(AN13:AO28,$AR12,1)</f>
+        <v>398.62754808960227</v>
+      </c>
+      <c r="AT12">
+        <f>INDEX(AN13:AO28,$AR12,2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AU12" s="31">
+        <f>(AT13-AT12)/(AS13-AS12)*(AK9-AS12)+AT12</f>
+        <v>3.6121258887860927E-2</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7263,10 +7241,10 @@
         <v>19.266578780998231</v>
       </c>
       <c r="E13" s="19">
-        <v>0.69000891637982498</v>
+        <v>0.62626594314817319</v>
       </c>
       <c r="F13" s="20">
-        <v>12.916021711115697</v>
+        <v>12.055006533898043</v>
       </c>
       <c r="G13" s="19">
         <v>0.10335847309137469</v>
@@ -7344,26 +7322,39 @@
         <v>8.87608201716103E-2</v>
       </c>
       <c r="AF13" s="26">
-        <v>995.08481606914188</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="e">
         <f>AI12+1</f>
         <v>#N/A</v>
       </c>
       <c r="AJ13" t="e">
-        <f>INDEX($C$3:$D$61,$AI13,1)</f>
+        <f>INDEX($A$3:$B$34,$AI13,1)</f>
         <v>#N/A</v>
       </c>
       <c r="AK13" t="e">
-        <f>INDEX($C$3:$D$61,$AI13,2)</f>
+        <f>INDEX($A$3:$B$34,$AI13,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN13">
-        <f>IFERROR(AL14,0)</f>
-        <v>10.629775598362722</v>
+        <f>IFERROR(AL12,0)</f>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>0.25</v>
+        <f>0.39</f>
+        <v>0.39</v>
+      </c>
+      <c r="AR13">
+        <f>AR12+1</f>
+        <v>15</v>
+      </c>
+      <c r="AS13">
+        <f>INDEX(AN13:AO28,$AR13,1)</f>
+        <v>529.30454995644266</v>
+      </c>
+      <c r="AT13">
+        <f>INDEX(AN13:AO28,$AR13,2)</f>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -7380,10 +7371,10 @@
         <v>20.773077005241632</v>
       </c>
       <c r="E14" s="19">
-        <v>0.71989701826185737</v>
+        <v>0.65670203024104479</v>
       </c>
       <c r="F14" s="20">
-        <v>13.520503210215875</v>
+        <v>12.452707311320639</v>
       </c>
       <c r="G14" s="19">
         <v>0.11239490849968871</v>
@@ -7459,28 +7450,28 @@
       </c>
       <c r="AE14" s="27"/>
       <c r="AF14" s="27"/>
-      <c r="AI14">
-        <f>MATCH($AK$6,$E$3:$E$76,1)</f>
-        <v>4</v>
-      </c>
-      <c r="AJ14">
-        <f>INDEX($E$3:$F$76,$AI14,1)</f>
-        <v>0.47490381758389882</v>
-      </c>
-      <c r="AK14">
-        <f>INDEX($E$3:$F$34,$AI14,2)</f>
-        <v>10.440629297853183</v>
-      </c>
-      <c r="AL14">
-        <f>(AK15-AK14)/(AJ15-AJ14)*($AK$6-AJ14)+AK14</f>
-        <v>10.629775598362722</v>
+      <c r="AI14" t="e">
+        <f>MATCH($AK$8,$C$3:$C$61,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ14" t="e">
+        <f>INDEX($C$3:$D$61,$AI14,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK14" t="e">
+        <f>INDEX($C$3:$D$61,$AI14,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL14" t="e">
+        <f>(AK15-AK14)/(AJ15-AJ14)*($AK$8-AJ14)+AK14</f>
+        <v>#N/A</v>
       </c>
       <c r="AN14">
-        <f>IFERROR(AL16,0)</f>
-        <v>18.587377986398824</v>
+        <f>IFERROR(AL14,0)</f>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -7497,10 +7488,10 @@
         <v>22.351899629129285</v>
       </c>
       <c r="E15" s="19">
-        <v>0.75717224564562602</v>
+        <v>0.69000891637982498</v>
       </c>
       <c r="F15" s="20">
-        <v>14.123985253884289</v>
+        <v>12.916021711115697</v>
       </c>
       <c r="G15" s="19">
         <v>0.11905411416595035</v>
@@ -7576,24 +7567,24 @@
       </c>
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
-      <c r="AI15">
+      <c r="AI15" t="e">
         <f>AI14+1</f>
-        <v>5</v>
-      </c>
-      <c r="AJ15">
-        <f>INDEX($E$3:$F$76,$AI15,1)</f>
-        <v>0.50456534479000337</v>
-      </c>
-      <c r="AK15">
-        <f>INDEX($E$3:$F$34,$AI15,2)</f>
-        <v>10.664183942359521</v>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ15" t="e">
+        <f>INDEX($C$3:$D$61,$AI15,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK15" t="e">
+        <f>INDEX($C$3:$D$61,$AI15,2)</f>
+        <v>#N/A</v>
       </c>
       <c r="AN15">
-        <f>IFERROR(AL18,0)</f>
-        <v>27.538239455445083</v>
+        <f>IFERROR(AL16,0)</f>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>0.17499999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -7610,10 +7601,10 @@
         <v>24.445422460722568</v>
       </c>
       <c r="E16" s="19">
-        <v>0.79076753822659218</v>
+        <v>0.71989701826185737</v>
       </c>
       <c r="F16" s="20">
-        <v>14.80003202431153</v>
+        <v>13.520503210215875</v>
       </c>
       <c r="G16" s="19">
         <v>0.13183741611176161</v>
@@ -7689,28 +7680,28 @@
       </c>
       <c r="AE16" s="27"/>
       <c r="AF16" s="27"/>
-      <c r="AI16">
-        <f>MATCH($AK$6,$G$3:$G$102,1)</f>
-        <v>34</v>
-      </c>
-      <c r="AJ16">
-        <f>INDEX($G$3:$H$102,$AI16,1)</f>
-        <v>0.49893896584627456</v>
-      </c>
-      <c r="AK16">
-        <f>INDEX($G$3:$H$102,$AI16,2)</f>
-        <v>18.556872366267431</v>
-      </c>
-      <c r="AL16">
-        <f>(AK17-AK16)/(AJ17-AJ16)*($AK$6-AJ16)+AK16</f>
-        <v>18.587377986398824</v>
+      <c r="AI16" t="e">
+        <f>MATCH($AK$8,$E$5:$E$78,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ16" t="e">
+        <f>INDEX($E$3:$F$78,$AI16,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK16" t="e">
+        <f>INDEX($E$3:$F$78,$AI16,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL16" t="e">
+        <f>(AK17-AK16)/(AJ17-AJ16)*($AK$8-AJ16)+AK16</f>
+        <v>#N/A</v>
       </c>
       <c r="AN16">
-        <f>IFERROR(AL20,0)</f>
-        <v>46.824062216435145</v>
+        <f>IFERROR(AL18,0)</f>
+        <v>16.231818048275187</v>
       </c>
       <c r="AO16">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -7727,10 +7718,10 @@
         <v>26.330200844271499</v>
       </c>
       <c r="E17" s="19">
-        <v>0.82585279216822449</v>
+        <v>0.75717224564562602</v>
       </c>
       <c r="F17" s="20">
-        <v>15.571846853701949</v>
+        <v>14.123985253884289</v>
       </c>
       <c r="G17" s="19">
         <v>0.14092357469249711</v>
@@ -7806,24 +7797,24 @@
       </c>
       <c r="AE17" s="27"/>
       <c r="AF17" s="27"/>
-      <c r="AI17">
+      <c r="AI17" t="e">
         <f>AI16+1</f>
-        <v>35</v>
-      </c>
-      <c r="AJ17">
-        <f>INDEX($G$3:$H$102,$AI17,1)</f>
-        <v>0.52636569800209454</v>
-      </c>
-      <c r="AK17">
-        <f>INDEX($G$3:$H$102,$AI17,2)</f>
-        <v>19.345413875184203</v>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ17" t="e">
+        <f>INDEX($E$3:$F$78,$AI17,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK17" t="e">
+        <f>INDEX($E$3:$F$78,$AI17,2)</f>
+        <v>#N/A</v>
       </c>
       <c r="AN17">
-        <f>IFERROR(AL22,0)</f>
-        <v>81.828067715641268</v>
+        <f>IFERROR(AL20,0)</f>
+        <v>22.156148162414272</v>
       </c>
       <c r="AO17">
-        <v>0.125</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -7840,10 +7831,10 @@
         <v>28.418552399039445</v>
       </c>
       <c r="E18" s="19">
-        <v>0.87036760812132674</v>
+        <v>0.79076753822659218</v>
       </c>
       <c r="F18" s="20">
-        <v>16.534436033750268</v>
+        <v>14.80003202431153</v>
       </c>
       <c r="G18" s="19">
         <v>0.15231850984375295</v>
@@ -7920,27 +7911,27 @@
       <c r="AE18" s="27"/>
       <c r="AF18" s="27"/>
       <c r="AI18">
-        <f>MATCH($AK$6,$I$3:$I$94,1)</f>
-        <v>36</v>
+        <f>MATCH($AK$8,$G$3:$G$102,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <f>INDEX($I$3:$J$94,$AI18,1)</f>
-        <v>0.49538812736407589</v>
+        <f>INDEX($G$3:$H$102,$AI18,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK18">
-        <f>INDEX($I$3:$J$94,$AI18,2)</f>
-        <v>27.28834875614384</v>
+        <f>INDEX($G$3:$H$102,$AI18,2)</f>
+        <v>16.231818048275187</v>
       </c>
       <c r="AL18">
-        <f>(AK19-AK18)/(AJ19-AJ18)*($AK$6-AJ18)+AK18</f>
-        <v>27.538239455445083</v>
+        <f>(AK19-AK18)/(AJ19-AJ18)*($AK$8-AJ18)+AK18</f>
+        <v>16.231818048275187</v>
       </c>
       <c r="AN18">
-        <f>IFERROR(AL24,0)</f>
-        <v>183.74522095176155</v>
+        <f>IFERROR(AL22,0)</f>
+        <v>29.034041429342423</v>
       </c>
       <c r="AO18">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -7957,10 +7948,10 @@
         <v>30.60978530434258</v>
       </c>
       <c r="E19" s="19">
-        <v>0.92006331510030526</v>
+        <v>0.82585279216822449</v>
       </c>
       <c r="F19" s="20">
-        <v>17.718244226863668</v>
+        <v>15.571846853701949</v>
       </c>
       <c r="G19" s="19">
         <v>0.16580264582423657</v>
@@ -8038,22 +8029,22 @@
       <c r="AF19" s="27"/>
       <c r="AI19">
         <f>AI18+1</f>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AJ19">
-        <f>INDEX($I$3:$J$94,$AI19,1)</f>
-        <v>0.51841436474043368</v>
+        <f>INDEX($G$3:$H$102,$AI19,1)</f>
+        <v>5.4104060956307952E-2</v>
       </c>
       <c r="AK19">
-        <f>INDEX($I$3:$J$94,$AI19,2)</f>
-        <v>28.53600735699796</v>
+        <f>INDEX($G$3:$H$102,$AI19,2)</f>
+        <v>16.210425982253568</v>
       </c>
       <c r="AN19">
-        <f>IFERROR(AL26,0)</f>
-        <v>305.22637102420549</v>
+        <f>IFERROR(AL24,0)</f>
+        <v>42.347453124591439</v>
       </c>
       <c r="AO19">
-        <v>8.5000000000000006E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -8070,10 +8061,10 @@
         <v>33.172647398501077</v>
       </c>
       <c r="E20" s="19">
-        <v>0.96185567883855683</v>
+        <v>0.87036760812132674</v>
       </c>
       <c r="F20" s="20">
-        <v>18.680241223025757</v>
+        <v>16.534436033750268</v>
       </c>
       <c r="G20" s="19">
         <v>0.17848679187091937</v>
@@ -8150,27 +8141,27 @@
       <c r="AE20" s="27"/>
       <c r="AF20" s="27"/>
       <c r="AI20">
-        <f>MATCH($AK$6,$K$3:$K$78,1)</f>
-        <v>30</v>
+        <f>MATCH($AK$8,$I$3:$I$94,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <f>INDEX($K$3:$L$78,$AI20,1)</f>
-        <v>0.49334175470709368</v>
+        <f>INDEX($I$3:$J$94,$AI20,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK20">
-        <f>INDEX($K$3:$L$78,$AI20,2)</f>
-        <v>46.146416186000067</v>
+        <f>INDEX($I$3:$J$94,$AI20,2)</f>
+        <v>22.156148162414272</v>
       </c>
       <c r="AL20">
-        <f>(AK21-AK20)/(AJ21-AJ20)*($AK$6-AJ20)+AK20</f>
-        <v>46.824062216435145</v>
+        <f>(AK21-AK20)/(AJ21-AJ20)*($AK$8-AJ20)+AK20</f>
+        <v>22.156148162414272</v>
       </c>
       <c r="AN20">
-        <f>IFERROR(AL28,0)</f>
-        <v>497.6986724934859</v>
+        <f>IFERROR(AL26,0)</f>
+        <v>64.664736942432171</v>
       </c>
       <c r="AO20">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -8187,10 +8178,10 @@
         <v>35.876115431875093</v>
       </c>
       <c r="E21" s="19">
-        <v>1.0014938779790932</v>
+        <v>0.92006331510030526</v>
       </c>
       <c r="F21" s="20">
-        <v>19.594582641918432</v>
+        <v>17.718244226863668</v>
       </c>
       <c r="G21" s="19">
         <v>0.19350441387500991</v>
@@ -8268,22 +8259,22 @@
       <c r="AF21" s="27"/>
       <c r="AI21">
         <f>AI20+1</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="AJ21">
-        <f>INDEX($K$3:$L$78,$AI21,1)</f>
-        <v>0.5126366458439966</v>
+        <f>INDEX($I$3:$J$94,$AI21,1)</f>
+        <v>5.2965648078858354E-2</v>
       </c>
       <c r="AK21">
-        <f>INDEX($K$3:$L$78,$AI21,2)</f>
-        <v>48.110162760571214</v>
+        <f>INDEX($I$3:$J$94,$AI21,2)</f>
+        <v>22.151011176811359</v>
       </c>
       <c r="AN21">
-        <f>IFERROR(AL30,0)</f>
-        <v>825.12859785735498</v>
+        <f>IFERROR(AL28,0)</f>
+        <v>89.721150597791976</v>
       </c>
       <c r="AO21">
-        <v>6.5000000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8300,10 +8291,10 @@
         <v>39.078568018567019</v>
       </c>
       <c r="E22" s="19">
-        <v>1.0554729575850146</v>
+        <v>0.96185567883855683</v>
       </c>
       <c r="F22" s="20">
-        <v>21.12664521275574</v>
+        <v>18.680241223025757</v>
       </c>
       <c r="G22" s="19">
         <v>0.2062148795137943</v>
@@ -8375,32 +8366,32 @@
         <v>0.13869604075868699</v>
       </c>
       <c r="AD22" s="26">
-        <v>996.40229949627724</v>
+        <v>1000</v>
       </c>
       <c r="AE22" s="27"/>
       <c r="AF22" s="27"/>
       <c r="AI22">
-        <f>MATCH($AK$6,$M$3:$M$72,1)</f>
-        <v>36</v>
+        <f>MATCH($AK$8,$K$3:$K$78,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <f>INDEX($M$3:$N$72,$AI22,1)</f>
-        <v>0.48833445321345309</v>
+        <f>INDEX($K$3:$L$78,$AI22,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK22">
-        <f>INDEX($M$3:$N$72,$AI22,2)</f>
-        <v>79.403607693089555</v>
+        <f>INDEX($K$3:$L$78,$AI22,2)</f>
+        <v>29.034041429342423</v>
       </c>
       <c r="AL22">
-        <f>(AK23-AK22)/(AJ23-AJ22)*($AK$6-AJ22)+AK22</f>
-        <v>81.828067715641268</v>
+        <f>(AK23-AK22)/(AJ23-AJ22)*($AK$8-AJ22)+AK22</f>
+        <v>29.034041429342423</v>
       </c>
       <c r="AN22">
-        <f>IFERROR(AL32,0)</f>
-        <v>0</v>
+        <f>IFERROR(AL30,0)</f>
+        <v>110.81129943414297</v>
       </c>
       <c r="AO22">
-        <v>5.5E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -8417,10 +8408,10 @@
         <v>42.479128093183</v>
       </c>
       <c r="E23" s="19">
-        <v>1.1056438254048528</v>
+        <v>1.0014938779790932</v>
       </c>
       <c r="F23" s="20">
-        <v>22.593897989893247</v>
+        <v>19.594582641918432</v>
       </c>
       <c r="G23" s="19">
         <v>0.22629106830881465</v>
@@ -8494,22 +8485,22 @@
       <c r="AF23" s="27"/>
       <c r="AI23">
         <f>AI22+1</f>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AJ23">
-        <f>INDEX($M$3:$N$72,$AI23,1)</f>
-        <v>0.51154774627424948</v>
+        <f>INDEX($K$3:$L$78,$AI23,1)</f>
+        <v>5.4923731281415915E-2</v>
       </c>
       <c r="AK23">
-        <f>INDEX($M$3:$N$72,$AI23,2)</f>
-        <v>84.228045162457178</v>
+        <f>INDEX($K$3:$L$78,$AI23,2)</f>
+        <v>29.022290580376623</v>
       </c>
       <c r="AN23">
-        <f>IFERROR(AL34,0)</f>
-        <v>0</v>
+        <f>IFERROR(AL32,0)</f>
+        <v>155.31163397677494</v>
       </c>
       <c r="AO23">
-        <v>4.4999999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -8526,10 +8517,10 @@
         <v>45.756669724232559</v>
       </c>
       <c r="E24" s="19">
-        <v>1.1711335666927061</v>
+        <v>1.0554729575850146</v>
       </c>
       <c r="F24" s="20">
-        <v>24.484556238555825</v>
+        <v>21.12664521275574</v>
       </c>
       <c r="G24" s="19">
         <v>0.23945654289601714</v>
@@ -8602,27 +8593,27 @@
       <c r="AE24" s="27"/>
       <c r="AF24" s="27"/>
       <c r="AI24">
-        <f>MATCH($AK$6,$O$3:$O$63,1)</f>
-        <v>39</v>
+        <f>MATCH($AK$8,$M$3:$M$72,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <f>INDEX($O$3:$P$63,$AI24,1)</f>
-        <v>0.48482241644390139</v>
+        <f>INDEX($M$3:$N$72,$AI24,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK24">
-        <f>INDEX($O$3:$P$63,$AI24,2)</f>
-        <v>173.63866149231259</v>
+        <f>INDEX($M$3:$N$72,$AI24,2)</f>
+        <v>42.347453124591439</v>
       </c>
       <c r="AL24">
-        <f>(AK25-AK24)/(AJ25-AJ24)*($AK$6-AJ24)+AK24</f>
-        <v>183.74522095176155</v>
+        <f>(AK25-AK24)/(AJ25-AJ24)*($AK$8-AJ24)+AK24</f>
+        <v>42.347453124591439</v>
       </c>
       <c r="AN24">
-        <f>IFERROR(AL36,0)</f>
-        <v>0</v>
+        <f>IFERROR(AL34,0)</f>
+        <v>210.9166558108476</v>
       </c>
       <c r="AO24">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -8639,10 +8630,10 @@
         <v>49.334877034696191</v>
       </c>
       <c r="E25" s="19">
-        <v>1.2132517384925618</v>
+        <v>1.1056438254048528</v>
       </c>
       <c r="F25" s="20">
-        <v>26.026366040019525</v>
+        <v>22.593897989893247</v>
       </c>
       <c r="G25" s="19">
         <v>0.25934200083342612</v>
@@ -8716,22 +8707,22 @@
       <c r="AF25" s="27"/>
       <c r="AI25">
         <f>AI24+1</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AJ25">
-        <f>INDEX($O$3:$P$63,$AI25,1)</f>
-        <v>0.50124501635247487</v>
+        <f>INDEX($M$3:$N$72,$AI25,1)</f>
+        <v>5.3012615637720598E-2</v>
       </c>
       <c r="AK25">
-        <f>INDEX($O$3:$P$63,$AI25,2)</f>
-        <v>184.57426147377652</v>
+        <f>INDEX($M$3:$N$72,$AI25,2)</f>
+        <v>42.335804409456372</v>
       </c>
       <c r="AN25">
-        <f>IFERROR(AL38,0)</f>
-        <v>0</v>
+        <f>IFERROR(AL36,0)</f>
+        <v>318.48438721399742</v>
       </c>
       <c r="AO25">
-        <v>3.5000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -8748,10 +8739,10 @@
         <v>53.411650974631357</v>
       </c>
       <c r="E26" s="19">
-        <v>1.2696411924259698</v>
+        <v>1.1711335666927061</v>
       </c>
       <c r="F26" s="20">
-        <v>27.664177420468043</v>
+        <v>24.484556238555825</v>
       </c>
       <c r="G26" s="19">
         <v>0.27360018808175457</v>
@@ -8824,27 +8815,27 @@
       <c r="AE26" s="27"/>
       <c r="AF26" s="27"/>
       <c r="AI26">
-        <f>MATCH($AK$6,$Q$3:$Q$59,1)</f>
-        <v>41</v>
+        <f>MATCH($AK$8,$O$3:$O$63,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ26">
-        <f>INDEX($Q$3:$R$59,$AI26,1)</f>
-        <v>0.48135772350023043</v>
+        <f>INDEX($O$3:$P$63,$AI26,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK26">
-        <f>INDEX($Q$3:$R$59,$AI26,2)</f>
-        <v>298.4699054181541</v>
+        <f>INDEX($O$3:$P$63,$AI26,2)</f>
+        <v>64.664736942432171</v>
       </c>
       <c r="AL26">
-        <f>(AK27-AK26)/(AJ27-AJ26)*($AK$6-AJ26)+AK26</f>
-        <v>305.22637102420549</v>
+        <f>(AK27-AK26)/(AJ27-AJ26)*($AK$8-AJ26)+AK26</f>
+        <v>64.664736942432171</v>
       </c>
       <c r="AN26">
-        <f>IFERROR(AL40,0)</f>
-        <v>0</v>
+        <f>IFERROR(AL38,0)</f>
+        <v>398.62754808960227</v>
       </c>
       <c r="AO26">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -8861,10 +8852,10 @@
         <v>57.239788861448829</v>
       </c>
       <c r="E27" s="19">
-        <v>1.3232911728029835</v>
+        <v>1.2132517384925618</v>
       </c>
       <c r="F27" s="20">
-        <v>29.919898092059618</v>
+        <v>26.026366040019525</v>
       </c>
       <c r="G27" s="19">
         <v>0.29482874972355033</v>
@@ -8938,15 +8929,22 @@
       <c r="AF27" s="27"/>
       <c r="AI27">
         <f>AI26+1</f>
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="AJ27">
         <f>INDEX($O$3:$P$63,$AI27,1)</f>
-        <v>0.54121688403475621</v>
+        <v>5.327664913280148E-2</v>
       </c>
       <c r="AK27">
-        <f>INDEX($Q$3:$R$59,$AI27,2)</f>
-        <v>320.16448544241405</v>
+        <f>INDEX($O$3:$P$63,$AI27,2)</f>
+        <v>64.713437002161015</v>
+      </c>
+      <c r="AN27">
+        <f>IFERROR(AL40,0)</f>
+        <v>529.30454995644266</v>
+      </c>
+      <c r="AO27">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
@@ -8963,10 +8961,10 @@
         <v>62.922818240064231</v>
       </c>
       <c r="E28" s="19">
-        <v>1.3946135792037704</v>
+        <v>1.2696411924259698</v>
       </c>
       <c r="F28" s="20">
-        <v>32.391174859961204</v>
+        <v>27.664177420468043</v>
       </c>
       <c r="G28" s="19">
         <v>0.31103793877214159</v>
@@ -9039,20 +9037,27 @@
       <c r="AE28" s="27"/>
       <c r="AF28" s="27"/>
       <c r="AI28">
-        <f>MATCH($AK$6,$S$3:$S$55,1)</f>
-        <v>42</v>
+        <f>MATCH($AK$8,$Q$3:$Q$59,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ28">
-        <f>INDEX($S$3:$T$55,$AI28,1)</f>
-        <v>0.48521969364912387</v>
+        <f>INDEX($Q$3:$R$59,$AI28,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK28">
-        <f>INDEX($S$3:$T$55,$AI28,2)</f>
-        <v>472.32905834587115</v>
+        <f>INDEX($Q$3:$R$59,$AI28,2)</f>
+        <v>89.721150597791976</v>
       </c>
       <c r="AL28">
-        <f>(AK29-AK28)/(AJ29-AJ28)*($AK$6-AJ28)+AK28</f>
-        <v>497.6986724934859</v>
+        <f>(AK29-AK28)/(AJ29-AJ28)*($AK$8-AJ28)+AK28</f>
+        <v>89.721150597791976</v>
+      </c>
+      <c r="AN28">
+        <f>IFERROR(AL42,0)</f>
+        <v>723.22884559455485</v>
+      </c>
+      <c r="AO28">
+        <v>0.03</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9069,10 +9074,10 @@
         <v>68.262087709638394</v>
       </c>
       <c r="E29" s="19">
-        <v>1.4697781019888598</v>
+        <v>1.3232911728029835</v>
       </c>
       <c r="F29" s="20">
-        <v>35.317862554023883</v>
+        <v>29.919898092059618</v>
       </c>
       <c r="G29" s="19">
         <v>0.33146860742568218</v>
@@ -9138,7 +9143,7 @@
         <v>0.19179676818501704</v>
       </c>
       <c r="AB29" s="26">
-        <v>997.17838265944192</v>
+        <v>1000</v>
       </c>
       <c r="AC29" s="27"/>
       <c r="AD29" s="27"/>
@@ -9146,15 +9151,15 @@
       <c r="AF29" s="27"/>
       <c r="AI29">
         <f>AI28+1</f>
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="AJ29">
-        <f>INDEX($S$3:$T$55,$AI29,1)</f>
-        <v>0.50674585090262536</v>
+        <f>INDEX($O$3:$P$59,$AI29,1)</f>
+        <v>5.327664913280148E-2</v>
       </c>
       <c r="AK29">
-        <f>INDEX($S$3:$T$55,$AI29,2)</f>
-        <v>509.27756879199188</v>
+        <f>INDEX($Q$3:$R$59,$AI29,2)</f>
+        <v>89.606427872218035</v>
       </c>
     </row>
     <row r="30" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9171,10 +9176,10 @@
         <v>74.736248685643133</v>
       </c>
       <c r="E30" s="19">
-        <v>1.5458693669086307</v>
+        <v>1.3946135792037704</v>
       </c>
       <c r="F30" s="20">
-        <v>38.3916241715364</v>
+        <v>32.391174859961204</v>
       </c>
       <c r="G30" s="19">
         <v>0.35181710738441163</v>
@@ -9234,7 +9239,7 @@
         <v>0.25089818299928995</v>
       </c>
       <c r="Z30" s="26">
-        <v>1001.2301473716986</v>
+        <v>1000</v>
       </c>
       <c r="AA30" s="27"/>
       <c r="AB30" s="27"/>
@@ -9243,20 +9248,20 @@
       <c r="AE30" s="27"/>
       <c r="AF30" s="27"/>
       <c r="AI30">
-        <f>MATCH($AK$6,$U$3:$U$39,1)</f>
-        <v>34</v>
+        <f>MATCH($AK$8,$S$3:$S$55,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ30">
-        <f>INDEX($U$3:$V$39,$AI30,1)</f>
-        <v>0.48175703210756271</v>
+        <f>INDEX($S$3:$T$55,$AI30,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK30">
-        <f>INDEX($U$3:$V$39,$AI30,2)</f>
-        <v>769.94886891147212</v>
+        <f>INDEX($S$3:$T$55,$AI30,2)</f>
+        <v>110.81129943414297</v>
       </c>
       <c r="AL30">
-        <f>(AK31-AK30)/(AJ31-AJ30)*($AK$6-AJ30)+AK30</f>
-        <v>825.12859785735498</v>
+        <f>(AK31-AK30)/(AJ31-AJ30)*($AK$8-AJ30)+AK30</f>
+        <v>110.81129943414297</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -9273,10 +9278,10 @@
         <v>80.827656841034042</v>
       </c>
       <c r="E31" s="19">
-        <v>1.6324784397561509</v>
+        <v>1.4697781019888598</v>
       </c>
       <c r="F31" s="20">
-        <v>42.031302875673966</v>
+        <v>35.317862554023883</v>
       </c>
       <c r="G31" s="19">
         <v>0.37115848244810368</v>
@@ -9342,15 +9347,15 @@
       <c r="AF31" s="27"/>
       <c r="AI31">
         <f>AI30+1</f>
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="AJ31">
-        <f>INDEX($U$3:$V$39,$AI31,1)</f>
-        <v>0.5087470234672794</v>
+        <f>INDEX($S$3:$T$55,$AI31,1)</f>
+        <v>5.3486813333859302E-2</v>
       </c>
       <c r="AK31">
-        <f>INDEX($U$3:$V$39,$AI31,2)</f>
-        <v>851.58582712254724</v>
+        <f>INDEX($S$3:$T$55,$AI31,2)</f>
+        <v>110.66613005018682</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -9367,10 +9372,10 @@
         <v>88.134607728456388</v>
       </c>
       <c r="E32" s="19">
-        <v>1.7083483736568466</v>
+        <v>1.5458693669086307</v>
       </c>
       <c r="F32" s="20">
-        <v>45.27269047538536</v>
+        <v>38.3916241715364</v>
       </c>
       <c r="G32" s="19">
         <v>0.39275118468891651</v>
@@ -9435,20 +9440,20 @@
       <c r="AE32" s="27"/>
       <c r="AF32" s="27"/>
       <c r="AI32">
-        <f>MATCH($AK$6,$W$3:$W$33,1)</f>
-        <v>31</v>
+        <f>MATCH($AK$8,$U$3:$U$39,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ32">
-        <f>INDEX($W$3:$X$33,$AI32,1)</f>
-        <v>0.38343557223340058</v>
+        <f>INDEX($U$3:$V$39,$AI32,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK32">
-        <f>INDEX($W$3:$X$33,$AI32,2)</f>
-        <v>997.54157278132868</v>
-      </c>
-      <c r="AL32" t="e">
-        <f>(AK33-AK32)/(AJ33-AJ32)*($AK$6-AJ32)+AK32</f>
-        <v>#REF!</v>
+        <f>INDEX($U$3:$V$39,$AI32,2)</f>
+        <v>155.31163397677494</v>
+      </c>
+      <c r="AL32">
+        <f>(AK33-AK32)/(AJ33-AJ32)*($AK$8-AJ32)+AK32</f>
+        <v>155.31163397677494</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9465,10 +9470,10 @@
         <v>97.775132335564351</v>
       </c>
       <c r="E33" s="19">
-        <v>1.7787420268819947</v>
+        <v>1.6324784397561509</v>
       </c>
       <c r="F33" s="20">
-        <v>48.566434622373649</v>
+        <v>42.031302875673966</v>
       </c>
       <c r="G33" s="19">
         <v>0.4164397179985056</v>
@@ -9522,7 +9527,7 @@
         <v>0.38343557223340058</v>
       </c>
       <c r="X33" s="26">
-        <v>997.54157278132868</v>
+        <v>1000</v>
       </c>
       <c r="Y33" s="27"/>
       <c r="Z33" s="27"/>
@@ -9534,15 +9539,15 @@
       <c r="AF33" s="27"/>
       <c r="AI33">
         <f>AI32+1</f>
-        <v>32</v>
-      </c>
-      <c r="AJ33" t="e">
-        <f>INDEX($W$3:$X$33,$AI33,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK33" t="e">
-        <f>INDEX($W$3:$X$33,$AI33,2)</f>
-        <v>#REF!</v>
+        <v>2</v>
+      </c>
+      <c r="AJ33">
+        <f>INDEX($U$3:$V$39,$AI33,1)</f>
+        <v>5.3429410908936589E-2</v>
+      </c>
+      <c r="AK33">
+        <f>INDEX($U$3:$V$39,$AI33,2)</f>
+        <v>154.79934257732464</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9559,10 +9564,10 @@
         <v>106.72255396703177</v>
       </c>
       <c r="E34" s="19">
-        <v>1.8539067436228625</v>
+        <v>1.7083483736568466</v>
       </c>
       <c r="F34" s="20">
-        <v>52.206005786614249</v>
+        <v>45.27269047538536</v>
       </c>
       <c r="G34" s="19">
         <v>0.44603800592379877</v>
@@ -9623,25 +9628,23 @@
       <c r="AE34" s="27"/>
       <c r="AF34" s="27"/>
       <c r="AI34">
-        <f>MATCH($AK$6,$Y$3:$Y$30,1)</f>
-        <v>28</v>
+        <f>MATCH($AK$8,$W$3:$W$33,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ34">
-        <f>INDEX($Y$3:$Z$30,$AI34,1)</f>
-        <v>0.25089818299928995</v>
+        <f>INDEX($W$3:$X$33,$AI34,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK34">
-        <f>INDEX($Y$3:$Z$30,$AI34,2)</f>
-        <v>1001.2301473716986</v>
-      </c>
-      <c r="AL34" t="e">
-        <f>(AK35-AK34)/(AJ35-AJ34)*($AK$6-AJ34)+AK34</f>
-        <v>#REF!</v>
+        <f>INDEX($W$3:$X$33,$AI34,2)</f>
+        <v>210.9166558108476</v>
+      </c>
+      <c r="AL34">
+        <f>(AK35-AK34)/(AJ35-AJ34)*($AK$8-AJ34)+AK34</f>
+        <v>210.9166558108476</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
       <c r="C35" s="19">
         <v>4.2814181578928716</v>
       </c>
@@ -9649,10 +9652,10 @@
         <v>114.83833464936261</v>
       </c>
       <c r="E35" s="19">
-        <v>1.9167064211030354</v>
+        <v>1.7787420268819947</v>
       </c>
       <c r="F35" s="20">
-        <v>55.267918448797531</v>
+        <v>48.566434622373649</v>
       </c>
       <c r="G35" s="19">
         <v>0.46913494233841835</v>
@@ -9714,20 +9717,18 @@
       <c r="AF35" s="27"/>
       <c r="AI35">
         <f>AI34+1</f>
-        <v>29</v>
-      </c>
-      <c r="AJ35" t="e">
-        <f>INDEX($Y$3:$Z$30,$AI35,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK35" t="e">
-        <f>INDEX($Y$3:$Z$30,$AI35,2)</f>
-        <v>#REF!</v>
+        <v>2</v>
+      </c>
+      <c r="AJ35">
+        <f>INDEX($W$3:$X$33,$AI35,1)</f>
+        <v>5.6420506371004792E-2</v>
+      </c>
+      <c r="AK35">
+        <f>INDEX($W$3:$X$33,$AI35,2)</f>
+        <v>210.81969207968876</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
       <c r="C36" s="19">
         <v>4.4578308296088842</v>
       </c>
@@ -9735,10 +9736,10 @@
         <v>124.07604002152118</v>
       </c>
       <c r="E36" s="19">
-        <v>1.9977011314321962</v>
+        <v>1.8539067436228625</v>
       </c>
       <c r="F36" s="20">
-        <v>59.409699163356692</v>
+        <v>52.206005786614249</v>
       </c>
       <c r="G36" s="19">
         <v>0.49893896584627456</v>
@@ -9799,20 +9800,20 @@
       <c r="AE36" s="27"/>
       <c r="AF36" s="27"/>
       <c r="AI36">
-        <f>MATCH($AK$6,$AA$3:$AA$29,1)</f>
-        <v>27</v>
+        <f>MATCH($AK$8,$Y$3:$Y$30,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ36">
-        <f>INDEX($AA$3:$AB$29,$AI36,1)</f>
-        <v>0.19179676818501704</v>
+        <f>INDEX($Y$3:$Z$30,$AI36,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK36">
-        <f>INDEX($AA$3:$AB$29,$AI36,2)</f>
-        <v>997.17838265944192</v>
-      </c>
-      <c r="AL36" t="e">
-        <f>(AK37-AK36)/(AJ37-AJ36)*($AK$6-AJ36)+AK36</f>
-        <v>#REF!</v>
+        <f>INDEX($Y$3:$Z$30,$AI36,2)</f>
+        <v>318.48438721399742</v>
+      </c>
+      <c r="AL36">
+        <f>(AK37-AK36)/(AJ37-AJ36)*($AK$8-AJ36)+AK36</f>
+        <v>318.48438721399742</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
@@ -9825,10 +9826,10 @@
         <v>132.56308425986487</v>
       </c>
       <c r="E37" s="19">
-        <v>2.090540430551536</v>
+        <v>1.9167064211030354</v>
       </c>
       <c r="F37" s="20">
-        <v>64.713366840696224</v>
+        <v>55.267918448797531</v>
       </c>
       <c r="G37" s="19">
         <v>0.52636569800209454</v>
@@ -9890,15 +9891,15 @@
       <c r="AF37" s="27"/>
       <c r="AI37">
         <f>AI36+1</f>
-        <v>28</v>
-      </c>
-      <c r="AJ37" t="e">
-        <f>INDEX($AA$3:$AB$29,$AI37,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK37" t="e">
-        <f>INDEX($AA$3:$AB$29,$AI37,2)</f>
-        <v>#REF!</v>
+        <v>2</v>
+      </c>
+      <c r="AJ37">
+        <f>INDEX($Y$3:$Z$30,$AI37,1)</f>
+        <v>5.4292213338326185E-2</v>
+      </c>
+      <c r="AK37">
+        <f>INDEX($Y$3:$Z$30,$AI37,2)</f>
+        <v>318.7117167694895</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
@@ -9911,10 +9912,10 @@
         <v>143.227148334802</v>
       </c>
       <c r="E38" s="19">
-        <v>2.1657212509161408</v>
+        <v>1.9977011314321962</v>
       </c>
       <c r="F38" s="20">
-        <v>69.210724479673956</v>
+        <v>59.409699163356692</v>
       </c>
       <c r="G38" s="19">
         <v>0.55418013828357038</v>
@@ -9975,20 +9976,20 @@
       <c r="AE38" s="27"/>
       <c r="AF38" s="27"/>
       <c r="AI38">
-        <f>MATCH($AK$6,$AC$3:$AC$22,1)</f>
-        <v>20</v>
+        <f>MATCH($AK$8,$AA$3:$AA$29,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ38">
-        <f>INDEX($AC$3:$AD$22,$AI38,1)</f>
-        <v>0.13869604075868699</v>
+        <f>INDEX($AA$3:$AB$29,$AI38,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK38">
-        <f>INDEX($AC$3:$AD$22,$AI38,2)</f>
-        <v>996.40229949627724</v>
-      </c>
-      <c r="AL38" t="e">
-        <f>(AK39-AK38)/(AJ39-AJ38)*($AK$6-AJ38)+AK38</f>
-        <v>#REF!</v>
+        <f>INDEX($AA$3:$AB$29,$AI38,2)</f>
+        <v>398.62754808960227</v>
+      </c>
+      <c r="AL38">
+        <f>(AK39-AK38)/(AJ39-AJ38)*($AK$8-AJ38)+AK38</f>
+        <v>398.62754808960227</v>
       </c>
     </row>
     <row r="39" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10001,10 +10002,10 @@
         <v>154.27623743900509</v>
       </c>
       <c r="E39" s="19">
-        <v>2.2595205107739025</v>
+        <v>2.090540430551536</v>
       </c>
       <c r="F39" s="20">
-        <v>74.169761381563944</v>
+        <v>64.713366840696224</v>
       </c>
       <c r="G39" s="19">
         <v>0.57935409915272784</v>
@@ -10052,7 +10053,7 @@
         <v>0.55209201939587849</v>
       </c>
       <c r="V39" s="26">
-        <v>1004.2896047829022</v>
+        <v>1000</v>
       </c>
       <c r="W39" s="27"/>
       <c r="X39" s="27"/>
@@ -10066,15 +10067,15 @@
       <c r="AF39" s="27"/>
       <c r="AI39">
         <f>AI38+1</f>
-        <v>21</v>
-      </c>
-      <c r="AJ39" t="e">
-        <f>INDEX($AC$3:$AD$22,$AI39,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK39" t="e">
-        <f>INDEX($AC$3:$AD$22,$AI39,2)</f>
-        <v>#REF!</v>
+        <v>2</v>
+      </c>
+      <c r="AJ39">
+        <f>INDEX($AA$3:$AB$29,$AI39,1)</f>
+        <v>5.2883053729696997E-2</v>
+      </c>
+      <c r="AK39">
+        <f>INDEX($AA$3:$AB$29,$AI39,2)</f>
+        <v>398.53199218839194</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
@@ -10087,10 +10088,10 @@
         <v>173.97205462386626</v>
       </c>
       <c r="E40" s="19">
-        <v>2.3502528863794998</v>
+        <v>2.1657212509161408</v>
       </c>
       <c r="F40" s="20">
-        <v>79.242184066471893</v>
+        <v>69.210724479673956</v>
       </c>
       <c r="G40" s="19">
         <v>0.60567160209794135</v>
@@ -10147,20 +10148,20 @@
       <c r="AE40" s="27"/>
       <c r="AF40" s="27"/>
       <c r="AI40">
-        <f>MATCH($AK$6,$AE$3:$AE$13,1)</f>
-        <v>11</v>
+        <f>MATCH($AK$8,$AC$3:$AC$22,1)</f>
+        <v>1</v>
       </c>
       <c r="AJ40">
-        <f>INDEX($AE$3:$AF$13,$AI40,1)</f>
-        <v>8.87608201716103E-2</v>
+        <f>INDEX($AC$3:$AD$22,$AI40,1)</f>
+        <v>0.05</v>
       </c>
       <c r="AK40">
-        <f>INDEX($AE$3:$AF$13,$AI40,2)</f>
-        <v>995.08481606914188</v>
-      </c>
-      <c r="AL40" t="e">
-        <f>(AK41-AK40)/(AJ41-AJ40)*($AK$6-AJ40)+AK40</f>
-        <v>#REF!</v>
+        <f>INDEX($AC$3:$AD$22,$AI40,2)</f>
+        <v>529.30454995644266</v>
+      </c>
+      <c r="AL40">
+        <f>(AK41-AK40)/(AJ41-AJ40)*($AK$8-AJ40)+AK40</f>
+        <v>529.30454995644266</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
@@ -10173,10 +10174,10 @@
         <v>189.30832104387375</v>
       </c>
       <c r="E41" s="19">
-        <v>2.4446248716335486</v>
+        <v>2.2595205107739025</v>
       </c>
       <c r="F41" s="20">
-        <v>85.355228714372402</v>
+        <v>74.169761381563944</v>
       </c>
       <c r="G41" s="19">
         <v>0.63767452713555994</v>
@@ -10234,15 +10235,15 @@
       <c r="AF41" s="27"/>
       <c r="AI41">
         <f>AI40+1</f>
-        <v>12</v>
-      </c>
-      <c r="AJ41" t="e">
-        <f>INDEX($AE$3:$AF$13,$AI41,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK41" t="e">
-        <f>INDEX($AE$3:$AF$13,$AI41,2)</f>
-        <v>#REF!</v>
+        <v>2</v>
+      </c>
+      <c r="AJ41">
+        <f>INDEX($AC$3:$AD$22,$AI41,1)</f>
+        <v>5.3362980948725158E-2</v>
+      </c>
+      <c r="AK41">
+        <f>INDEX($AC$3:$AD$22,$AI41,2)</f>
+        <v>529.18390850587434</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
@@ -10255,10 +10256,10 @@
         <v>203.90988354003605</v>
       </c>
       <c r="E42" s="19">
-        <v>2.5402207965461177</v>
+        <v>2.3502528863794998</v>
       </c>
       <c r="F42" s="20">
-        <v>91.752835851304226</v>
+        <v>79.242184066471893</v>
       </c>
       <c r="G42" s="19">
         <v>0.6646247648584237</v>
@@ -10314,6 +10315,22 @@
       <c r="AD42" s="27"/>
       <c r="AE42" s="27"/>
       <c r="AF42" s="27"/>
+      <c r="AI42">
+        <f>MATCH($AK$8,$AE$3:$AE$13,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <f>INDEX($AE$3:$AF$13,$AI42,1)</f>
+        <v>0.05</v>
+      </c>
+      <c r="AK42">
+        <f>INDEX($AE$3:$AF$13,$AI42,2)</f>
+        <v>723.22884559455485</v>
+      </c>
+      <c r="AL42">
+        <f>(AK43-AK42)/(AJ43-AJ42)*($AK$8-AJ42)+AK42</f>
+        <v>723.22884559455485</v>
+      </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
@@ -10325,10 +10342,10 @@
         <v>216.53605012068968</v>
       </c>
       <c r="E43" s="19">
-        <v>2.6475624697998756</v>
+        <v>2.4446248716335486</v>
       </c>
       <c r="F43" s="20">
-        <v>98.830223102923526</v>
+        <v>85.355228714372402</v>
       </c>
       <c r="G43" s="19">
         <v>0.68922551279623789</v>
@@ -10384,6 +10401,18 @@
       <c r="AD43" s="27"/>
       <c r="AE43" s="27"/>
       <c r="AF43" s="27"/>
+      <c r="AI43">
+        <f>AI42+1</f>
+        <v>2</v>
+      </c>
+      <c r="AJ43">
+        <f>INDEX($AE$3:$AF$13,$AI43,1)</f>
+        <v>5.3144592401910086E-2</v>
+      </c>
+      <c r="AK43">
+        <f>INDEX($AE$3:$AF$13,$AI43,2)</f>
+        <v>731.22314895555587</v>
+      </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
@@ -10395,10 +10424,10 @@
         <v>235.62633893229716</v>
       </c>
       <c r="E44" s="19">
-        <v>2.7427751313381084</v>
+        <v>2.5402207965461177</v>
       </c>
       <c r="F44" s="20">
-        <v>105.69858555311041</v>
+        <v>91.752835851304226</v>
       </c>
       <c r="G44" s="19">
         <v>0.7154574342579727</v>
@@ -10465,10 +10494,10 @@
         <v>250.7254330518204</v>
       </c>
       <c r="E45" s="19">
-        <v>2.8471562899138707</v>
+        <v>2.6475624697998756</v>
       </c>
       <c r="F45" s="20">
-        <v>113.04338713470423</v>
+        <v>98.830223102923526</v>
       </c>
       <c r="G45" s="19">
         <v>0.74720157435387469</v>
@@ -10535,10 +10564,10 @@
         <v>273.67044242022786</v>
       </c>
       <c r="E46" s="19">
-        <v>2.9614814955863671</v>
+        <v>2.7427751313381084</v>
       </c>
       <c r="F46" s="20">
-        <v>121.63983936968813</v>
+        <v>105.69858555311041</v>
       </c>
       <c r="G46" s="19">
         <v>0.77173485451068313</v>
@@ -10605,10 +10634,10 @@
         <v>298.41069297625495</v>
       </c>
       <c r="E47" s="19">
-        <v>3.0679798552027409</v>
+        <v>2.8471562899138707</v>
       </c>
       <c r="F47" s="20">
-        <v>130.89207167672998</v>
+        <v>113.04338713470423</v>
       </c>
       <c r="G47" s="19">
         <v>0.79787911117439292</v>
@@ -10675,10 +10704,10 @@
         <v>330.39424378057936</v>
       </c>
       <c r="E48" s="19">
-        <v>3.2105570410826796</v>
+        <v>2.9614814955863671</v>
       </c>
       <c r="F48" s="20">
-        <v>142.86834644981241</v>
+        <v>121.63983936968813</v>
       </c>
       <c r="G48" s="19">
         <v>0.82657371137688007</v>
@@ -10745,10 +10774,10 @@
         <v>359.89086347800588</v>
       </c>
       <c r="E49" s="19">
-        <v>3.3293805851820784</v>
+        <v>3.0679798552027409</v>
       </c>
       <c r="F49" s="20">
-        <v>151.86427028840004</v>
+        <v>130.89207167672998</v>
       </c>
       <c r="G49" s="19">
         <v>0.86761525283085972</v>
@@ -10815,10 +10844,10 @@
         <v>385.29639485810844</v>
       </c>
       <c r="E50" s="19">
-        <v>3.4560806763292602</v>
+        <v>3.2105570410826796</v>
       </c>
       <c r="F50" s="20">
-        <v>163.7478973599998</v>
+        <v>142.86834644981241</v>
       </c>
       <c r="G50" s="19">
         <v>0.89881938803768158</v>
@@ -10885,10 +10914,10 @@
         <v>423.55705077793067</v>
       </c>
       <c r="E51" s="19">
-        <v>3.5695408057416564</v>
+        <v>3.3293805851820784</v>
       </c>
       <c r="F51" s="20">
-        <v>174.77295048637231</v>
+        <v>151.86427028840004</v>
       </c>
       <c r="G51" s="19">
         <v>0.93396966505488987</v>
@@ -10955,10 +10984,10 @@
         <v>459.51031437971562</v>
       </c>
       <c r="E52" s="19">
-        <v>3.7053845534946421</v>
+        <v>3.4560806763292602</v>
       </c>
       <c r="F52" s="20">
-        <v>187.29933641789012</v>
+        <v>163.7478973599998</v>
       </c>
       <c r="G52" s="19">
         <v>0.96951598291836061</v>
@@ -11025,10 +11054,10 @@
         <v>516.58673808402523</v>
       </c>
       <c r="E53" s="19">
-        <v>3.8502901369489684</v>
+        <v>3.5695408057416564</v>
       </c>
       <c r="F53" s="20">
-        <v>199.09136052608162</v>
+        <v>174.77295048637231</v>
       </c>
       <c r="G53" s="19">
         <v>1.0023570130231672</v>
@@ -11095,10 +11124,10 @@
         <v>559.283532800594</v>
       </c>
       <c r="E54" s="19">
-        <v>4.0332871471133931</v>
+        <v>3.7053845534946421</v>
       </c>
       <c r="F54" s="20">
-        <v>219.31106292435277</v>
+        <v>187.29933641789012</v>
       </c>
       <c r="G54" s="19">
         <v>1.0426090730029105</v>
@@ -11165,10 +11194,10 @@
         <v>598.76465550991952</v>
       </c>
       <c r="E55" s="19">
-        <v>4.1614927966713244</v>
+        <v>3.8502901369489684</v>
       </c>
       <c r="F55" s="20">
-        <v>233.83941468975181</v>
+        <v>199.09136052608162</v>
       </c>
       <c r="G55" s="19">
         <v>1.0811954628599312</v>
@@ -11210,7 +11239,7 @@
         <v>0.73993623431920019</v>
       </c>
       <c r="T55" s="26">
-        <v>993.97811847512173</v>
+        <v>1000</v>
       </c>
       <c r="U55" s="27"/>
       <c r="V55" s="27"/>
@@ -11235,10 +11264,10 @@
         <v>641.02780358028156</v>
       </c>
       <c r="E56" s="19">
-        <v>4.2937778789258356</v>
+        <v>4.0332871471133931</v>
       </c>
       <c r="F56" s="20">
-        <v>248.0617507246042</v>
+        <v>219.31106292435277</v>
       </c>
       <c r="G56" s="19">
         <v>1.1212116577277091</v>
@@ -11301,10 +11330,10 @@
         <v>689.79683557886847</v>
       </c>
       <c r="E57" s="19">
-        <v>4.4124107572878284</v>
+        <v>4.1614927966713244</v>
       </c>
       <c r="F57" s="20">
-        <v>262.61690967853662</v>
+        <v>233.83941468975181</v>
       </c>
       <c r="G57" s="19">
         <v>1.1709537037110467</v>
@@ -11367,10 +11396,10 @@
         <v>761.392387175095</v>
       </c>
       <c r="E58" s="19">
-        <v>4.5988562985562664</v>
+        <v>4.2937778789258356</v>
       </c>
       <c r="F58" s="20">
-        <v>285.77427976576007</v>
+        <v>248.0617507246042</v>
       </c>
       <c r="G58" s="19">
         <v>1.2106176908190351</v>
@@ -11433,10 +11462,10 @@
         <v>839.57203798133105</v>
       </c>
       <c r="E59" s="19">
-        <v>4.7498346068723736</v>
+        <v>4.4124107572878284</v>
       </c>
       <c r="F59" s="20">
-        <v>304.39365137006638</v>
+        <v>262.61690967853662</v>
       </c>
       <c r="G59" s="19">
         <v>1.2478404310400293</v>
@@ -11472,7 +11501,7 @@
         <v>0.96892278663414011</v>
       </c>
       <c r="R59" s="26">
-        <v>996.99541846690056</v>
+        <v>1000</v>
       </c>
       <c r="S59" s="27"/>
       <c r="T59" s="27"/>
@@ -11499,10 +11528,10 @@
         <v>909.88467262540189</v>
       </c>
       <c r="E60" s="19">
-        <v>4.9455480322622272</v>
+        <v>4.5988562985562664</v>
       </c>
       <c r="F60" s="20">
-        <v>328.87936754748949</v>
+        <v>285.77427976576007</v>
       </c>
       <c r="G60" s="19">
         <v>1.2992600578180296</v>
@@ -11558,13 +11587,13 @@
         <v>12.646825502777622</v>
       </c>
       <c r="D61" s="26">
-        <v>1003.3193744144123</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="19">
-        <v>5.1389324086161974</v>
+        <v>4.7498346068723736</v>
       </c>
       <c r="F61" s="20">
-        <v>356.79039115584442</v>
+        <v>304.39365137006638</v>
       </c>
       <c r="G61" s="19">
         <v>1.336508108218653</v>
@@ -11616,13 +11645,11 @@
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
       <c r="E62" s="19">
-        <v>5.3183632383853379</v>
+        <v>4.9455480322622272</v>
       </c>
       <c r="F62" s="20">
-        <v>383.14779060610073</v>
+        <v>328.87936754748949</v>
       </c>
       <c r="G62" s="19">
         <v>1.3845732044653687</v>
@@ -11674,13 +11701,11 @@
     <row r="63" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
       <c r="E63" s="19">
-        <v>5.5263310752370955</v>
+        <v>5.1389324086161974</v>
       </c>
       <c r="F63" s="20">
-        <v>413.54974783453804</v>
+        <v>356.79039115584442</v>
       </c>
       <c r="G63" s="19">
         <v>1.4416271639697047</v>
@@ -11710,7 +11735,7 @@
         <v>1.3398801972217522</v>
       </c>
       <c r="P63" s="26">
-        <v>1002.874024762682</v>
+        <v>1000</v>
       </c>
       <c r="Q63" s="27"/>
       <c r="R63" s="27"/>
@@ -11735,10 +11760,10 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="19">
-        <v>5.7773218834876712</v>
+        <v>5.3183632383853379</v>
       </c>
       <c r="F64" s="20">
-        <v>449.55214569965784</v>
+        <v>383.14779060610073</v>
       </c>
       <c r="G64" s="19">
         <v>1.4934729672479663</v>
@@ -11789,10 +11814,10 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="19">
-        <v>6.0275180799684414</v>
+        <v>5.5263310752370955</v>
       </c>
       <c r="F65" s="20">
-        <v>492.19468997343057</v>
+        <v>413.54974783453804</v>
       </c>
       <c r="G65" s="19">
         <v>1.5456226363692345</v>
@@ -11843,10 +11868,10 @@
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="19">
-        <v>6.2316750627876285</v>
+        <v>5.7773218834876712</v>
       </c>
       <c r="F66" s="20">
-        <v>530.17696969388862</v>
+        <v>449.55214569965784</v>
       </c>
       <c r="G66" s="19">
         <v>1.6060622456751268</v>
@@ -11897,10 +11922,10 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="19">
-        <v>6.4950058839992613</v>
+        <v>6.0275180799684414</v>
       </c>
       <c r="F67" s="20">
-        <v>571.07235664949872</v>
+        <v>492.19468997343057</v>
       </c>
       <c r="G67" s="19">
         <v>1.6671870263101236</v>
@@ -11951,10 +11976,10 @@
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="19">
-        <v>6.7421651579373325</v>
+        <v>6.2316750627876285</v>
       </c>
       <c r="F68" s="20">
-        <v>620.17232696346593</v>
+        <v>530.17696969388862</v>
       </c>
       <c r="G68" s="19">
         <v>1.7167150812072896</v>
@@ -12005,10 +12030,10 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="19">
-        <v>6.9635140661456161</v>
+        <v>6.4950058839992613</v>
       </c>
       <c r="F69" s="20">
-        <v>657.21845252538344</v>
+        <v>571.07235664949872</v>
       </c>
       <c r="G69" s="19">
         <v>1.7712868673790434</v>
@@ -12059,10 +12084,10 @@
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="19">
-        <v>7.2212004188525398</v>
+        <v>6.7421651579373325</v>
       </c>
       <c r="F70" s="20">
-        <v>716.64614604562485</v>
+        <v>620.17232696346593</v>
       </c>
       <c r="G70" s="19">
         <v>1.8349887086624244</v>
@@ -12113,10 +12138,10 @@
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="19">
-        <v>7.4207223291761082</v>
+        <v>6.9635140661456161</v>
       </c>
       <c r="F71" s="20">
-        <v>754.83593187904137</v>
+        <v>657.21845252538344</v>
       </c>
       <c r="G71" s="19">
         <v>1.9009826058543113</v>
@@ -12167,10 +12192,10 @@
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="19">
-        <v>7.6720966235740855</v>
+        <v>7.2212004188525398</v>
       </c>
       <c r="F72" s="20">
-        <v>797.47884600316411</v>
+        <v>716.64614604562485</v>
       </c>
       <c r="G72" s="19">
         <v>1.9554789568597277</v>
@@ -12194,7 +12219,7 @@
         <v>2.1515427687894384</v>
       </c>
       <c r="N72" s="26">
-        <v>1002.0488292391984</v>
+        <v>1000</v>
       </c>
       <c r="O72" s="27"/>
       <c r="P72" s="27"/>
@@ -12214,6 +12239,1298 @@
       <c r="AD72" s="27"/>
       <c r="AE72" s="27"/>
       <c r="AF72" s="27"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="19">
+        <v>7.4207223291761082</v>
+      </c>
+      <c r="F73" s="20">
+        <v>754.83593187904137</v>
+      </c>
+      <c r="G73" s="19">
+        <v>2.0135710694591245</v>
+      </c>
+      <c r="H73" s="20">
+        <v>141.81998334491874</v>
+      </c>
+      <c r="I73" s="24">
+        <v>1.8912213895547436</v>
+      </c>
+      <c r="J73" s="20">
+        <v>213.76480244659581</v>
+      </c>
+      <c r="K73" s="24">
+        <v>2.5264349054106989</v>
+      </c>
+      <c r="L73" s="20">
+        <v>720.3157594408209</v>
+      </c>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="27"/>
+      <c r="AF73" s="27"/>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="19">
+        <v>7.6720966235740855</v>
+      </c>
+      <c r="F74" s="20">
+        <v>797.47884600316411</v>
+      </c>
+      <c r="G74" s="19">
+        <v>2.0817776352853397</v>
+      </c>
+      <c r="H74" s="20">
+        <v>150.75167283105642</v>
+      </c>
+      <c r="I74" s="24">
+        <v>1.9474045796253907</v>
+      </c>
+      <c r="J74" s="20">
+        <v>225.38426714995506</v>
+      </c>
+      <c r="K74" s="24">
+        <v>2.6385154517091669</v>
+      </c>
+      <c r="L74" s="20">
+        <v>779.04375702117829</v>
+      </c>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
+      <c r="AF74" s="27"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="19">
+        <v>7.9079713561553397</v>
+      </c>
+      <c r="F75" s="20">
+        <v>854.6595316145839</v>
+      </c>
+      <c r="G75" s="19">
+        <v>2.1328289928009774</v>
+      </c>
+      <c r="H75" s="20">
+        <v>157.65724581155706</v>
+      </c>
+      <c r="I75" s="24">
+        <v>2.007278110068933</v>
+      </c>
+      <c r="J75" s="20">
+        <v>240.56115301211437</v>
+      </c>
+      <c r="K75" s="24">
+        <v>2.7361585456390198</v>
+      </c>
+      <c r="L75" s="20">
+        <v>842.58308174472586</v>
+      </c>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27"/>
+      <c r="AF75" s="27"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="19">
+        <v>8.1182697967101785</v>
+      </c>
+      <c r="F76" s="20">
+        <v>898.37282926274668</v>
+      </c>
+      <c r="G76" s="19">
+        <v>2.2050765201037943</v>
+      </c>
+      <c r="H76" s="20">
+        <v>167.07427821431151</v>
+      </c>
+      <c r="I76" s="24">
+        <v>2.0565005192989627</v>
+      </c>
+      <c r="J76" s="20">
+        <v>252.86712940681122</v>
+      </c>
+      <c r="K76" s="24">
+        <v>2.8489015984552872</v>
+      </c>
+      <c r="L76" s="20">
+        <v>907.57959093235877</v>
+      </c>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="27"/>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="19">
+        <v>8.3594275132464908</v>
+      </c>
+      <c r="F77" s="20">
+        <v>955.94116379158788</v>
+      </c>
+      <c r="G77" s="19">
+        <v>2.2820729074195145</v>
+      </c>
+      <c r="H77" s="20">
+        <v>177.77701670931413</v>
+      </c>
+      <c r="I77" s="24">
+        <v>2.1629650620072334</v>
+      </c>
+      <c r="J77" s="20">
+        <v>275.99837233642893</v>
+      </c>
+      <c r="K77" s="24">
+        <v>2.9364976308257451</v>
+      </c>
+      <c r="L77" s="20">
+        <v>958.86275151917175</v>
+      </c>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27"/>
+      <c r="AF77" s="27"/>
+    </row>
+    <row r="78" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="28">
+        <v>8.5730750059713507</v>
+      </c>
+      <c r="F78" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G78" s="19">
+        <v>2.3403960094473515</v>
+      </c>
+      <c r="H78" s="20">
+        <v>186.87051774610578</v>
+      </c>
+      <c r="I78" s="24">
+        <v>2.2452827055671638</v>
+      </c>
+      <c r="J78" s="20">
+        <v>293.67529976385759</v>
+      </c>
+      <c r="K78" s="25">
+        <v>3.0298474119450272</v>
+      </c>
+      <c r="L78" s="26">
+        <v>1000</v>
+      </c>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="27"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
+      <c r="AC78" s="27"/>
+      <c r="AD78" s="27"/>
+      <c r="AE78" s="27"/>
+      <c r="AF78" s="27"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="19">
+        <v>2.4099201793380676</v>
+      </c>
+      <c r="H79" s="20">
+        <v>198.23771892427115</v>
+      </c>
+      <c r="I79" s="24">
+        <v>2.3260261661071699</v>
+      </c>
+      <c r="J79" s="20">
+        <v>315.69078641139123</v>
+      </c>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="27"/>
+      <c r="AF79" s="27"/>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="19">
+        <v>2.479007925974865</v>
+      </c>
+      <c r="H80" s="20">
+        <v>209.01401020799611</v>
+      </c>
+      <c r="I80" s="24">
+        <v>2.4121050220310121</v>
+      </c>
+      <c r="J80" s="20">
+        <v>341.43873600888759</v>
+      </c>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="27"/>
+      <c r="AE80" s="27"/>
+      <c r="AF80" s="27"/>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="19">
+        <v>2.5707531500075187</v>
+      </c>
+      <c r="H81" s="20">
+        <v>223.76703542568839</v>
+      </c>
+      <c r="I81" s="24">
+        <v>2.5165719511278013</v>
+      </c>
+      <c r="J81" s="20">
+        <v>368.52537548498174</v>
+      </c>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="27"/>
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="27"/>
+      <c r="AE81" s="27"/>
+      <c r="AF81" s="27"/>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="19">
+        <v>2.655154423388391</v>
+      </c>
+      <c r="H82" s="20">
+        <v>236.16819161078587</v>
+      </c>
+      <c r="I82" s="24">
+        <v>2.6018123312861769</v>
+      </c>
+      <c r="J82" s="20">
+        <v>395.34774208294243</v>
+      </c>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27"/>
+      <c r="AE82" s="27"/>
+      <c r="AF82" s="27"/>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="19">
+        <v>2.7367836756552912</v>
+      </c>
+      <c r="H83" s="20">
+        <v>254.13673258305525</v>
+      </c>
+      <c r="I83" s="24">
+        <v>2.6953807567907861</v>
+      </c>
+      <c r="J83" s="20">
+        <v>421.96130631622651</v>
+      </c>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
+      <c r="AF83" s="27"/>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="19">
+        <v>2.8466819413723226</v>
+      </c>
+      <c r="H84" s="20">
+        <v>270.96360557083642</v>
+      </c>
+      <c r="I84" s="24">
+        <v>2.786681474181707</v>
+      </c>
+      <c r="J84" s="20">
+        <v>449.45205730634746</v>
+      </c>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="27"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="19">
+        <v>2.9580001220368066</v>
+      </c>
+      <c r="H85" s="20">
+        <v>291.27306666606353</v>
+      </c>
+      <c r="I85" s="24">
+        <v>2.8985772365680891</v>
+      </c>
+      <c r="J85" s="20">
+        <v>484.61860523871047</v>
+      </c>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="27"/>
+      <c r="AF85" s="27"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="19">
+        <v>3.0736737390064861</v>
+      </c>
+      <c r="H86" s="20">
+        <v>311.82980627594748</v>
+      </c>
+      <c r="I86" s="24">
+        <v>2.9786580335669881</v>
+      </c>
+      <c r="J86" s="20">
+        <v>516.73048781806244</v>
+      </c>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="27"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="19">
+        <v>3.2035549501445364</v>
+      </c>
+      <c r="H87" s="20">
+        <v>337.25622432352043</v>
+      </c>
+      <c r="I87" s="24">
+        <v>3.0951370782749055</v>
+      </c>
+      <c r="J87" s="20">
+        <v>555.4608468895326</v>
+      </c>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+      <c r="AF87" s="27"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="19">
+        <v>3.315410191118652</v>
+      </c>
+      <c r="H88" s="20">
+        <v>362.17056406451832</v>
+      </c>
+      <c r="I88" s="24">
+        <v>3.2161716074410158</v>
+      </c>
+      <c r="J88" s="20">
+        <v>596.48537577122602</v>
+      </c>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="27"/>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="19">
+        <v>3.4242502333437144</v>
+      </c>
+      <c r="H89" s="20">
+        <v>387.74007256481974</v>
+      </c>
+      <c r="I89" s="24">
+        <v>3.352065738757545</v>
+      </c>
+      <c r="J89" s="20">
+        <v>653.73445296751595</v>
+      </c>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+      <c r="AF89" s="27"/>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="19">
+        <v>3.5295346242064318</v>
+      </c>
+      <c r="H90" s="20">
+        <v>410.90503793301929</v>
+      </c>
+      <c r="I90" s="24">
+        <v>3.4796304699406528</v>
+      </c>
+      <c r="J90" s="20">
+        <v>703.4536112591411</v>
+      </c>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
+      <c r="U90" s="27"/>
+      <c r="V90" s="27"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="27"/>
+      <c r="AF90" s="27"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="19">
+        <v>3.6712544572978367</v>
+      </c>
+      <c r="H91" s="20">
+        <v>445.77558669815835</v>
+      </c>
+      <c r="I91" s="24">
+        <v>3.6376643327935563</v>
+      </c>
+      <c r="J91" s="20">
+        <v>766.25586655470329</v>
+      </c>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="27"/>
+      <c r="S91" s="27"/>
+      <c r="T91" s="27"/>
+      <c r="U91" s="27"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
+      <c r="AF91" s="27"/>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="19">
+        <v>3.8148245816010786</v>
+      </c>
+      <c r="H92" s="20">
+        <v>474.32440789792429</v>
+      </c>
+      <c r="I92" s="24">
+        <v>3.799033625226786</v>
+      </c>
+      <c r="J92" s="20">
+        <v>838.93623917496802</v>
+      </c>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="27"/>
+      <c r="U92" s="27"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="27"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="27"/>
+      <c r="AE92" s="27"/>
+      <c r="AF92" s="27"/>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="19">
+        <v>3.984056697459351</v>
+      </c>
+      <c r="H93" s="20">
+        <v>516.67271704407142</v>
+      </c>
+      <c r="I93" s="24">
+        <v>3.9675675414915044</v>
+      </c>
+      <c r="J93" s="20">
+        <v>911.04527268222216</v>
+      </c>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="27"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="27"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="27"/>
+      <c r="AC93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AE93" s="27"/>
+      <c r="AF93" s="27"/>
+    </row>
+    <row r="94" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="19">
+        <v>4.1024005304980289</v>
+      </c>
+      <c r="H94" s="20">
+        <v>553.15671328712392</v>
+      </c>
+      <c r="I94" s="25">
+        <v>4.1352090851952594</v>
+      </c>
+      <c r="J94" s="26">
+        <v>1000</v>
+      </c>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="27"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="27"/>
+      <c r="U94" s="27"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="27"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27"/>
+      <c r="AE94" s="27"/>
+      <c r="AF94" s="27"/>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="19">
+        <v>4.2973890614697821</v>
+      </c>
+      <c r="H95" s="20">
+        <v>602.53617043210033</v>
+      </c>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="27"/>
+      <c r="Q95" s="27"/>
+      <c r="R95" s="27"/>
+      <c r="S95" s="27"/>
+      <c r="T95" s="27"/>
+      <c r="U95" s="27"/>
+      <c r="V95" s="27"/>
+      <c r="W95" s="27"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="27"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="27"/>
+      <c r="AC95" s="27"/>
+      <c r="AD95" s="27"/>
+      <c r="AE95" s="27"/>
+      <c r="AF95" s="27"/>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="19">
+        <v>4.4609277316239373</v>
+      </c>
+      <c r="H96" s="20">
+        <v>649.02321280819501</v>
+      </c>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
+      <c r="AF96" s="27"/>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="19">
+        <v>4.663529933884897</v>
+      </c>
+      <c r="H97" s="20">
+        <v>706.24528554248218</v>
+      </c>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="27"/>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="27"/>
+      <c r="S97" s="27"/>
+      <c r="T97" s="27"/>
+      <c r="U97" s="27"/>
+      <c r="V97" s="27"/>
+      <c r="W97" s="27"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="27"/>
+      <c r="AC97" s="27"/>
+      <c r="AD97" s="27"/>
+      <c r="AE97" s="27"/>
+      <c r="AF97" s="27"/>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="19">
+        <v>4.8458809828790201</v>
+      </c>
+      <c r="H98" s="20">
+        <v>770.8860496112361</v>
+      </c>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="27"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="27"/>
+      <c r="Q98" s="27"/>
+      <c r="R98" s="27"/>
+      <c r="S98" s="27"/>
+      <c r="T98" s="27"/>
+      <c r="U98" s="27"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="27"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="27"/>
+      <c r="AC98" s="27"/>
+      <c r="AD98" s="27"/>
+      <c r="AE98" s="27"/>
+      <c r="AF98" s="27"/>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="19">
+        <v>5.0557514315173488</v>
+      </c>
+      <c r="H99" s="20">
+        <v>833.74036558675948</v>
+      </c>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="27"/>
+      <c r="T99" s="27"/>
+      <c r="U99" s="27"/>
+      <c r="V99" s="27"/>
+      <c r="W99" s="27"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="27"/>
+      <c r="AC99" s="27"/>
+      <c r="AD99" s="27"/>
+      <c r="AE99" s="27"/>
+      <c r="AF99" s="27"/>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="19">
+        <v>5.2800362556253981</v>
+      </c>
+      <c r="H100" s="20">
+        <v>905.40279850009927</v>
+      </c>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="27"/>
+      <c r="S100" s="27"/>
+      <c r="T100" s="27"/>
+      <c r="U100" s="27"/>
+      <c r="V100" s="27"/>
+      <c r="W100" s="27"/>
+      <c r="X100" s="27"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="27"/>
+      <c r="AC100" s="27"/>
+      <c r="AD100" s="27"/>
+      <c r="AE100" s="27"/>
+      <c r="AF100" s="27"/>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="19">
+        <v>5.398598900924334</v>
+      </c>
+      <c r="H101" s="20">
+        <v>951.72642530462326</v>
+      </c>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="27"/>
+      <c r="Q101" s="27"/>
+      <c r="R101" s="27"/>
+      <c r="S101" s="27"/>
+      <c r="T101" s="27"/>
+      <c r="U101" s="27"/>
+      <c r="V101" s="27"/>
+      <c r="W101" s="27"/>
+      <c r="X101" s="27"/>
+      <c r="Y101" s="27"/>
+      <c r="Z101" s="27"/>
+      <c r="AA101" s="27"/>
+      <c r="AB101" s="27"/>
+      <c r="AC101" s="27"/>
+      <c r="AD101" s="27"/>
+      <c r="AE101" s="27"/>
+      <c r="AF101" s="27"/>
+    </row>
+    <row r="102" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="28">
+        <v>5.5365734355808014</v>
+      </c>
+      <c r="H102" s="26">
+        <v>1000</v>
+      </c>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="27"/>
+      <c r="Q102" s="27"/>
+      <c r="R102" s="27"/>
+      <c r="S102" s="27"/>
+      <c r="T102" s="27"/>
+      <c r="U102" s="27"/>
+      <c r="V102" s="27"/>
+      <c r="W102" s="27"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="27"/>
+      <c r="Z102" s="27"/>
+      <c r="AA102" s="27"/>
+      <c r="AB102" s="27"/>
+      <c r="AC102" s="27"/>
+      <c r="AD102" s="27"/>
+      <c r="AE102" s="27"/>
+      <c r="AF102" s="27"/>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -12243,8 +13560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12264,7 +13581,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="38">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12272,7 +13589,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="35">
-        <v>202</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12280,7 +13597,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="35">
-        <v>202</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12289,7 +13606,7 @@
       </c>
       <c r="B5" s="36">
         <f>Sheet1!U4</f>
-        <v>0.56978431271382779</v>
+        <v>0.27424773662347413</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12297,8 +13614,8 @@
         <v>25</v>
       </c>
       <c r="B6" s="36">
-        <f>Sheet2!AK8</f>
-        <v>9.7745973876932471E-2</v>
+        <f>Sheet2!AK10</f>
+        <v>3.6121258887860927E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Images/CalculationSheet.xlsx
+++ b/Images/CalculationSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANISH\Downloads\Package_Permissible_Deviation\Package_Permissible_Deviation\Permissible_Deviation_installer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANISH\Downloads\Permissible_Devaition_v3\Deploy\Resources\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F90C2-1B4D-49F6-AE0E-9FED5D801380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE228318-6790-4BC7-BEE3-499EB40AA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13575" yWindow="3540" windowWidth="10425" windowHeight="9360" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -452,7 +452,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -563,6 +563,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -589,11 +597,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1098,7 +1101,7 @@
   <dimension ref="A1:AD94"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,38 +1120,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="39"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1318,12 +1321,12 @@
       </c>
       <c r="S4" s="6">
         <f>Sheet3!B2</f>
-        <v>0.05</v>
+        <v>4.5454502105712891</v>
       </c>
       <c r="T4" s="3"/>
-      <c r="U4" s="48">
+      <c r="U4" s="41">
         <f>AC7</f>
-        <v>0.27424773662347413</v>
+        <v>0.48923686695402757</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1380,7 +1383,7 @@
       </c>
       <c r="S5" s="6">
         <f>Sheet3!B3</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="T5" s="3"/>
     </row>
@@ -1501,44 +1504,44 @@
       <c r="Q7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="1" t="e">
+      <c r="R7" s="1">
         <f>MATCH(S4,$A$3:$A$52,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S7" s="10" t="e">
+        <v>50</v>
+      </c>
+      <c r="S7" s="10">
         <f>INDEX($A$3:$B$54,$R$7,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T7" s="10" t="e">
+        <v>2.7503692811351921</v>
+      </c>
+      <c r="T7" s="10">
         <f>INDEX($A$3:$B$54,$R$7,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U7" s="1" t="e">
+        <v>24.909885589698849</v>
+      </c>
+      <c r="U7" s="1">
         <f>(T8-T7)/(S8-S7)*($S$4-S7)+T7</f>
-        <v>#N/A</v>
+        <v>25.557893415556936</v>
       </c>
       <c r="W7" s="1">
         <f>IFERROR(U7,0)</f>
-        <v>0</v>
+        <v>25.557893415556936</v>
       </c>
       <c r="X7" s="14">
         <v>0.2</v>
       </c>
       <c r="Z7" s="1">
         <f>MATCH(S5,W7:W14,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="10">
         <f>INDEX($W$7:$X$14,$Z$7,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
+        <v>42.977458462233187</v>
+      </c>
+      <c r="AB7" s="10">
         <f>INDEX($W$7:$X$14,$Z$7,2)</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AC7" s="1">
-        <f>IFERROR((AB8-AB7)/(AA8-AA7)*(S5-AA7)+AB7,1)</f>
-        <v>0.27424773662347413</v>
+        <f>IF(S4=10,AC17,IF(S5&lt;W7,0.2,IFERROR((AB8-AB7)/(AA8-AA7)*(S5-AA7)+AB7,1)))</f>
+        <v>0.48923686695402757</v>
       </c>
       <c r="AD7" s="15">
         <f>AC7*(S2-S3)</f>
@@ -1595,36 +1598,37 @@
         <v>896.11078373689747</v>
       </c>
       <c r="Q8" s="8"/>
-      <c r="R8" s="1" t="e">
+      <c r="R8" s="1">
         <f>R7+1</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S8" s="10" t="e">
+        <v>51</v>
+      </c>
+      <c r="S8" s="10">
         <f>INDEX($A$3:$B$54,$R$8,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T8" s="10" t="e">
+        <v>3</v>
+      </c>
+      <c r="T8" s="10">
         <f>INDEX($A$3:$B$54,$R$8,2)</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="W8" s="1">
         <f>IFERROR(U9,0)</f>
-        <v>0</v>
+        <v>25.032031011541619</v>
       </c>
       <c r="X8" s="14">
+        <f>IF(W8=0,0.2,0.25)</f>
         <v>0.25</v>
       </c>
       <c r="Z8" s="1">
         <f>Z7+1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="10">
         <f>INDEX($W$7:$X$14,$Z$8,1)</f>
-        <v>82.481925264059882</v>
+        <v>56.45007572025559</v>
       </c>
       <c r="AB8" s="10">
         <f>INDEX($W$7:$X$14,$Z$8,2)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1679,27 +1683,28 @@
       <c r="Q9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="1" t="e">
+      <c r="R9" s="1">
         <f>MATCH(S4,$C$3:$C$83,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S9" s="10" t="e">
+        <v>68</v>
+      </c>
+      <c r="S9" s="10">
         <f>INDEX($C$3:$D$83,$R$9,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T9" s="10" t="e">
+        <v>4.4109582568233945</v>
+      </c>
+      <c r="T9" s="10">
         <f>INDEX($C$3:$D$83,$R$9,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U9" s="1" t="e">
+        <v>25.02996253311029</v>
+      </c>
+      <c r="U9" s="1">
         <f>(T10-T9)/(S10-S9)*($S$4-S9)+T9</f>
-        <v>#N/A</v>
+        <v>25.032031011541619</v>
       </c>
       <c r="W9" s="1">
         <f>IFERROR(U11,0)</f>
-        <v>82.481925264059882</v>
+        <v>30.052521807804503</v>
       </c>
       <c r="X9" s="14">
+        <f>IF(W8=0,0.2,0.3)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -1753,21 +1758,21 @@
         <v>883.23625738509884</v>
       </c>
       <c r="Q10" s="8"/>
-      <c r="R10" s="1" t="e">
+      <c r="R10" s="1">
         <f>R9+1</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S10" s="10" t="e">
+        <v>69</v>
+      </c>
+      <c r="S10" s="10">
         <f>INDEX($C$3:$D$83,$R$10,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T10" s="10" t="e">
+        <v>4.6982424442508206</v>
+      </c>
+      <c r="T10" s="10">
         <f>INDEX($C$3:$D$83,$R$10,2)</f>
-        <v>#N/A</v>
+        <v>25.034380947214601</v>
       </c>
       <c r="W10" s="1">
         <f>IFERROR(U13,0)</f>
-        <v>147.27990601850905</v>
+        <v>42.977458462233187</v>
       </c>
       <c r="X10" s="14">
         <v>0.4</v>
@@ -1827,23 +1832,23 @@
       </c>
       <c r="R11" s="1">
         <f>MATCH(S4,$E$3:$E$89,1)</f>
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="S11" s="10">
         <f>INDEX($E$3:$F$89,$R$11,1)</f>
-        <v>0.05</v>
+        <v>4.3250302447177438</v>
       </c>
       <c r="T11" s="10">
         <f>INDEX($E$3:$F$89,$R$11,2)</f>
-        <v>82.481925264059882</v>
+        <v>30.109926117920523</v>
       </c>
       <c r="U11" s="1">
         <f>(T12-T11)/(S12-S11)*($S$4-S11)+T11</f>
-        <v>82.481925264059882</v>
+        <v>30.052521807804503</v>
       </c>
       <c r="W11" s="1">
         <f>IFERROR(U15,0)</f>
-        <v>237.722153238338</v>
+        <v>56.45007572025559</v>
       </c>
       <c r="X11" s="14">
         <v>0.5</v>
@@ -1901,19 +1906,19 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="1">
         <f>R11+1</f>
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="S12" s="11">
         <f>INDEX($E$3:$F$89,$R$12,1)</f>
-        <v>5.5474378600660415E-2</v>
+        <v>4.6066864832010381</v>
       </c>
       <c r="T12" s="10">
         <f>INDEX($E$3:$F$89,$R$12,2)</f>
-        <v>82.496485385812164</v>
+        <v>30.036573951308043</v>
       </c>
       <c r="W12" s="1">
         <f>IFERROR(U17,0)</f>
-        <v>333.08930190864123</v>
+        <v>71.874868718072165</v>
       </c>
       <c r="X12" s="14">
         <v>0.6</v>
@@ -1973,23 +1978,23 @@
       </c>
       <c r="R13" s="1">
         <f>MATCH(S4,$G$3:$G$90,1)</f>
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="S13" s="10">
         <f>INDEX($G$3:$H$90,$R$13,1)</f>
-        <v>0.05</v>
+        <v>4.2914570245631056</v>
       </c>
       <c r="T13" s="10">
         <f>INDEX($G$3:$H$90,$R$13,2)</f>
-        <v>147.27990601850905</v>
+        <v>43.652015502824199</v>
       </c>
       <c r="U13" s="1">
         <f>(T14-T13)/(S14-S13)*($S$4-S13)+T13</f>
-        <v>147.27990601850905</v>
+        <v>42.977458462233187</v>
       </c>
       <c r="W13" s="1">
         <f>IFERROR(U19,0)</f>
-        <v>587.58526781693706</v>
+        <v>104.72632377541801</v>
       </c>
       <c r="X13" s="14">
         <v>0.8</v>
@@ -2047,19 +2052,19 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="1">
         <f>R13+1</f>
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="S14" s="10">
         <f>INDEX($G$3:$H$90,$R$14,1)</f>
-        <v>5.4737801149340959E-2</v>
+        <v>4.5587594225629626</v>
       </c>
       <c r="T14" s="10">
         <f>INDEX($G$3:$H$90,$R$14,2)</f>
-        <v>148.20768078570879</v>
+        <v>42.942111755517153</v>
       </c>
       <c r="W14" s="1">
         <f>IFERROR(U21,0)</f>
-        <v>903.94826915062424</v>
+        <v>141.09377691897822</v>
       </c>
       <c r="X14" s="14">
         <v>1</v>
@@ -2119,19 +2124,19 @@
       </c>
       <c r="R15" s="1">
         <f>MATCH(S4,$I$3:$I$90,1)</f>
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="S15" s="10">
         <f>INDEX($I$3:$J$90,$R$15,1)</f>
-        <v>0.05</v>
+        <v>4.4788851810034336</v>
       </c>
       <c r="T15" s="10">
         <f>INDEX($I$3:$J$90,$R$15,2)</f>
-        <v>237.722153238338</v>
+        <v>56.708826115657004</v>
       </c>
       <c r="U15" s="1">
         <f>(T16-T15)/(S16-S15)*($S$4-S15)+T15</f>
-        <v>237.722153238338</v>
+        <v>56.45007572025559</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2186,18 +2191,18 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="1">
         <f>R15+1</f>
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="S16" s="10">
         <f>INDEX($I$3:$J$90,$R$16,1)</f>
-        <v>5.6959950511365112E-2</v>
+        <v>4.7536617610703145</v>
       </c>
       <c r="T16" s="10">
         <f>INDEX($I$3:$J$90,$R$16,2)</f>
-        <v>237.76411714113596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>55.640719495695599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.32080360575789557</v>
       </c>
@@ -2251,22 +2256,49 @@
       </c>
       <c r="R17" s="1">
         <f>MATCH(S4,$K$3:$K$92,1)</f>
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S17" s="10">
         <f>INDEX($K$3:$L$92,$R$17,1)</f>
-        <v>0.05</v>
+        <v>4.4387884985713359</v>
       </c>
       <c r="T17" s="10">
         <f>INDEX($K$3:$L$92,$R$17,2)</f>
-        <v>333.08930190864123</v>
+        <v>72.639991446856058</v>
       </c>
       <c r="U17" s="1">
         <f>(T18-T17)/(S18-S17)*($S$4-S17)+T17</f>
-        <v>333.08930190864123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>71.874868718072165</v>
+      </c>
+      <c r="W17" s="1">
+        <f>S9</f>
+        <v>4.4109582568233945</v>
+      </c>
+      <c r="X17" s="1">
+        <f>T9</f>
+        <v>25.02996253311029</v>
+      </c>
+      <c r="Y17" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>MATCH(S5,X17:X23,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>INDEX(X17:X23,Z17,1)</f>
+        <v>43.652015502824199</v>
+      </c>
+      <c r="AB17" s="1">
+        <f>INDEX(X17:Y23,Z17,2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC17" s="1">
+        <f>IFERROR((AB18-AB17)/(AA18-AA17)*(S5-AA17)+AB17,1)</f>
+        <v>0.48691237725407843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.34139189899134637</v>
       </c>
@@ -2318,18 +2350,41 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="1">
         <f>R17+1</f>
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="S18" s="10">
         <f>INDEX($K$3:$L$92,$R$18,1)</f>
-        <v>5.480685603723439E-2</v>
+        <v>4.6986501982860194</v>
       </c>
       <c r="T18" s="10">
         <f>INDEX($K$3:$L$92,$R$18,2)</f>
-        <v>335.77173461877192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>70.775910240357078</v>
+      </c>
+      <c r="W18" s="1">
+        <f>S11</f>
+        <v>4.3250302447177438</v>
+      </c>
+      <c r="X18" s="1">
+        <f>T11</f>
+        <v>30.109926117920523</v>
+      </c>
+      <c r="Y18" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="Z18" s="1">
+        <f>Z17+1</f>
+        <v>4</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>INDEX(X17:X23,Z18,1)</f>
+        <v>56.708826115657004</v>
+      </c>
+      <c r="AB18" s="1">
+        <f>INDEX(X17:Y23,Z18,2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.363301492268371</v>
       </c>
@@ -2383,23 +2438,33 @@
       </c>
       <c r="R19" s="1">
         <f>MATCH(S4,$M$3:$M$93,1)</f>
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="S19" s="10">
         <f>INDEX($M$3:$N$93,$R$19,1)</f>
-        <v>0.05</v>
+        <v>4.5097661304875194</v>
       </c>
       <c r="T19" s="10">
         <f>INDEX($M$3:$N$93,$R$19,2)</f>
-        <v>587.58526781693706</v>
+        <v>105.1336736299435</v>
       </c>
       <c r="U19" s="1">
         <f>(T20-T19)/(S20-S19)*($S$4-S19)+T19</f>
-        <v>587.58526781693706</v>
-      </c>
-      <c r="X19" s="47"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>104.72632377541801</v>
+      </c>
+      <c r="W19" s="1">
+        <f>S13</f>
+        <v>4.2914570245631056</v>
+      </c>
+      <c r="X19" s="40">
+        <f>T13</f>
+        <v>43.652015502824199</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.38695613987872768</v>
       </c>
@@ -2451,18 +2516,29 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="1">
         <f>R19+1</f>
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="S20" s="10">
         <f>INDEX($M$3:$N$93,$R$20,1)</f>
-        <v>5.5321438758536096E-2</v>
+        <v>4.7695688723754603</v>
       </c>
       <c r="T20" s="10">
         <f>INDEX($M$3:$N$93,$R$20,2)</f>
-        <v>586.66510067629781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>102.16790825600268</v>
+      </c>
+      <c r="W20" s="1">
+        <f>S15</f>
+        <v>4.4788851810034336</v>
+      </c>
+      <c r="X20" s="1">
+        <f>T15</f>
+        <v>56.708826115657004</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.41178898263261798</v>
       </c>
@@ -2516,22 +2592,33 @@
       </c>
       <c r="R21" s="1">
         <f>MATCH(S4,$O$3:$O$94,1)</f>
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="S21" s="10">
         <f>INDEX($O$3:$P$94,$R$21,1)</f>
-        <v>0.05</v>
+        <v>4.4078859285417957</v>
       </c>
       <c r="T21" s="10">
         <f>INDEX($O$3:$P$94,$R$21,2)</f>
-        <v>903.94826915062424</v>
+        <v>143.38799516658952</v>
       </c>
       <c r="U21" s="1">
         <f>(T22-T21)/(S22-S21)*($S$4-S21)+T21</f>
-        <v>903.94826915062424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>141.09377691897822</v>
+      </c>
+      <c r="W21" s="1">
+        <f>S17</f>
+        <v>4.4387884985713359</v>
+      </c>
+      <c r="X21" s="1">
+        <f>T17</f>
+        <v>72.639991446856058</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.43821447032479555</v>
       </c>
@@ -2583,18 +2670,29 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="1">
         <f>R21+1</f>
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="S22" s="10">
         <f>INDEX($O$3:$P$94,$R$22,1)</f>
-        <v>5.6264424100926448E-2</v>
+        <v>4.6577252976031156</v>
       </c>
       <c r="T22" s="10">
         <f>INDEX($O$3:$P$94,$R$22,2)</f>
-        <v>903.31991242840922</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>139.22131737046445</v>
+      </c>
+      <c r="W22" s="1">
+        <f>S19</f>
+        <v>4.5097661304875194</v>
+      </c>
+      <c r="X22" s="1">
+        <f>T19</f>
+        <v>105.1336736299435</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.46633574500793407</v>
       </c>
@@ -2643,8 +2741,19 @@
       <c r="P23" s="2">
         <v>731.34497162941329</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W23" s="1">
+        <f>S21</f>
+        <v>4.4078859285417957</v>
+      </c>
+      <c r="X23" s="1">
+        <f>T21</f>
+        <v>143.38799516658952</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.49625936808293925</v>
       </c>
@@ -2694,7 +2803,7 @@
         <v>716.3182124105557</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.52810311679171862</v>
       </c>
@@ -2744,7 +2853,7 @@
         <v>700.9887625582079</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.5619876400673437</v>
       </c>
@@ -2794,7 +2903,7 @@
         <v>685.98904978468886</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.59804356081067545</v>
       </c>
@@ -2844,7 +2953,7 @@
         <v>671.89585432608931</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.63529540525094963</v>
       </c>
@@ -2894,7 +3003,7 @@
         <v>656.9440344688436</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.67545778337230511</v>
       </c>
@@ -2944,7 +3053,7 @@
         <v>641.76515666939906</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.71752681795744699</v>
       </c>
@@ -2994,7 +3103,7 @@
         <v>626.93699113639093</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.76154660350159153</v>
       </c>
@@ -3044,7 +3153,7 @@
         <v>612.98564898572852</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0.80897375774330893</v>
       </c>
@@ -5974,9 +6083,10 @@
     <hyperlink ref="AA7" r:id="rId33" display="=@INDEX($W$7:$X$14,$Z$7,1)" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="AA8" r:id="rId34" display="=@INDEX($W$7:$X$14,$Z$8,1)" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="AB8" r:id="rId35" display="=@INDEX($W$7:$X$14,$Z$8,2)" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AB7" r:id="rId36" display="=@INDEX($W$7:$X$14,$Z$8,2)" xr:uid="{43973CEF-379D-4339-BB79-5B7372EDFA0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -5984,8 +6094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU104"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ38" sqref="AJ38"/>
+    <sheetView topLeftCell="U10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN29" sqref="AN29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6008,70 +6118,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="40" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="40" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="40" t="s">
+      <c r="R1" s="45"/>
+      <c r="S1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="40" t="s">
+      <c r="T1" s="45"/>
+      <c r="U1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="40" t="s">
+      <c r="V1" s="45"/>
+      <c r="W1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="40" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="40" t="s">
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="40" t="s">
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="40" t="s">
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="41"/>
+      <c r="AF1" s="45"/>
     </row>
     <row r="2" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -6187,10 +6297,10 @@
       <c r="D3" s="23">
         <v>10.266162891446687</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="39">
         <v>0.05</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="39">
         <v>10</v>
       </c>
       <c r="G3" s="23">
@@ -6283,16 +6393,16 @@
       <c r="C4" s="19">
         <v>0.97073781367350531</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="39">
         <v>10.845233659029933</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="39">
         <v>0.4</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="39">
         <v>10</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="39">
         <v>5.4104060956307952E-2</v>
       </c>
       <c r="H4" s="20">
@@ -6768,7 +6878,7 @@
       </c>
       <c r="AK8">
         <f>Sheet3!B2</f>
-        <v>0.05</v>
+        <v>4.5454502105712891</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -6873,7 +6983,7 @@
       </c>
       <c r="AK9">
         <f>Sheet3!B4</f>
-        <v>500</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -6978,7 +7088,7 @@
       </c>
       <c r="AK10">
         <f>AU12</f>
-        <v>3.6121258887860927E-2</v>
+        <v>0.37559977060453675</v>
       </c>
       <c r="AL10" s="30" t="s">
         <v>44</v>
@@ -7188,21 +7298,21 @@
       <c r="AF12" s="20">
         <v>950.61847692978984</v>
       </c>
-      <c r="AI12" t="e">
+      <c r="AI12">
         <f>MATCH($AK$8,$A$3:$A$34,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ12" t="e">
+        <v>16</v>
+      </c>
+      <c r="AJ12">
         <f>INDEX($A$3:$B$34,$AI12,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK12" t="e">
+        <v>4.5405609382285137</v>
+      </c>
+      <c r="AK12">
         <f>INDEX($A$3:$B$34,$AI12,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL12" t="e">
+        <v>40.893512050198453</v>
+      </c>
+      <c r="AL12">
         <f>(AK13-AK12)/(AJ13-AJ12)*($AK$8-AJ12)+AK12</f>
-        <v>#N/A</v>
+        <v>40.983847418424837</v>
       </c>
       <c r="AN12" t="s">
         <v>23</v>
@@ -7212,19 +7322,19 @@
       </c>
       <c r="AR12">
         <f>_xlfn.XMATCH(AK9,AN13:AN28,-1)</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AS12">
         <f>INDEX(AN13:AO28,$AR12,1)</f>
-        <v>398.62754808960227</v>
+        <v>40.983847418424837</v>
       </c>
       <c r="AT12">
         <f>INDEX(AN13:AO28,$AR12,2)</f>
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="AU12" s="31">
         <f>(AT13-AT12)/(AS13-AS12)*(AK9-AS12)+AT12</f>
-        <v>3.6121258887860927E-2</v>
+        <v>0.37559977060453675</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7324,21 +7434,21 @@
       <c r="AF13" s="26">
         <v>1000</v>
       </c>
-      <c r="AI13" t="e">
+      <c r="AI13">
         <f>AI12+1</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ13" t="e">
+        <v>17</v>
+      </c>
+      <c r="AJ13">
         <f>INDEX($A$3:$B$34,$AI13,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK13" t="e">
+        <v>4.7852636619567486</v>
+      </c>
+      <c r="AK13">
         <f>INDEX($A$3:$B$34,$AI13,2)</f>
-        <v>#N/A</v>
+        <v>45.414698252201056</v>
       </c>
       <c r="AN13">
         <f>IFERROR(AL12,0)</f>
-        <v>0</v>
+        <v>40.983847418424837</v>
       </c>
       <c r="AO13">
         <f>0.39</f>
@@ -7346,15 +7456,15 @@
       </c>
       <c r="AR13">
         <f>AR12+1</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AS13">
         <f>INDEX(AN13:AO28,$AR13,1)</f>
-        <v>529.30454995644266</v>
+        <v>128.58340557124032</v>
       </c>
       <c r="AT13">
         <f>INDEX(AN13:AO28,$AR13,2)</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -7450,25 +7560,25 @@
       </c>
       <c r="AE14" s="27"/>
       <c r="AF14" s="27"/>
-      <c r="AI14" t="e">
+      <c r="AI14">
         <f>MATCH($AK$8,$C$3:$C$61,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" t="e">
+        <v>34</v>
+      </c>
+      <c r="AJ14">
         <f>INDEX($C$3:$D$61,$AI14,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" t="e">
+        <v>4.4578308296088842</v>
+      </c>
+      <c r="AK14">
         <f>INDEX($C$3:$D$61,$AI14,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" t="e">
+        <v>124.07604002152118</v>
+      </c>
+      <c r="AL14">
         <f>(AK15-AK14)/(AJ15-AJ14)*($AK$8-AJ14)+AK14</f>
-        <v>#N/A</v>
+        <v>128.58340557124032</v>
       </c>
       <c r="AN14">
         <f>IFERROR(AL14,0)</f>
-        <v>0</v>
+        <v>128.58340557124032</v>
       </c>
       <c r="AO14">
         <v>0.3</v>
@@ -7567,21 +7677,21 @@
       </c>
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
-      <c r="AI15" t="e">
+      <c r="AI15">
         <f>AI14+1</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" t="e">
+        <v>35</v>
+      </c>
+      <c r="AJ15">
         <f>INDEX($C$3:$D$61,$AI15,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK15" t="e">
+        <v>4.6228118044513957</v>
+      </c>
+      <c r="AK15">
         <f>INDEX($C$3:$D$61,$AI15,2)</f>
-        <v>#N/A</v>
+        <v>132.56308425986487</v>
       </c>
       <c r="AN15">
         <f>IFERROR(AL16,0)</f>
-        <v>0</v>
+        <v>275.11974101598031</v>
       </c>
       <c r="AO15">
         <v>0.25</v>
@@ -7680,25 +7790,25 @@
       </c>
       <c r="AE16" s="27"/>
       <c r="AF16" s="27"/>
-      <c r="AI16" t="e">
+      <c r="AI16">
         <f>MATCH($AK$8,$E$5:$E$78,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ16" t="e">
+        <v>55</v>
+      </c>
+      <c r="AJ16">
         <f>INDEX($E$3:$F$78,$AI16,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK16" t="e">
+        <v>4.1614927966713244</v>
+      </c>
+      <c r="AK16">
         <f>INDEX($E$3:$F$78,$AI16,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL16" t="e">
+        <v>233.83941468975181</v>
+      </c>
+      <c r="AL16">
         <f>(AK17-AK16)/(AJ17-AJ16)*($AK$8-AJ16)+AK16</f>
-        <v>#N/A</v>
+        <v>275.11974101598031</v>
       </c>
       <c r="AN16">
         <f>IFERROR(AL18,0)</f>
-        <v>16.231818048275187</v>
+        <v>672.8953691028139</v>
       </c>
       <c r="AO16">
         <v>0.2</v>
@@ -7797,21 +7907,21 @@
       </c>
       <c r="AE17" s="27"/>
       <c r="AF17" s="27"/>
-      <c r="AI17" t="e">
+      <c r="AI17">
         <f>AI16+1</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ17" t="e">
+        <v>56</v>
+      </c>
+      <c r="AJ17">
         <f>INDEX($E$3:$F$78,$AI17,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK17" t="e">
+        <v>4.2937778789258356</v>
+      </c>
+      <c r="AK17">
         <f>INDEX($E$3:$F$78,$AI17,2)</f>
-        <v>#N/A</v>
+        <v>248.0617507246042</v>
       </c>
       <c r="AN17">
         <f>IFERROR(AL20,0)</f>
-        <v>22.156148162414272</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>0.17499999999999999</v>
@@ -7912,23 +8022,23 @@
       <c r="AF18" s="27"/>
       <c r="AI18">
         <f>MATCH($AK$8,$G$3:$G$102,1)</f>
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="AJ18">
         <f>INDEX($G$3:$H$102,$AI18,1)</f>
-        <v>0.05</v>
+        <v>4.4609277316239373</v>
       </c>
       <c r="AK18">
         <f>INDEX($G$3:$H$102,$AI18,2)</f>
-        <v>16.231818048275187</v>
+        <v>649.02321280819501</v>
       </c>
       <c r="AL18">
         <f>(AK19-AK18)/(AJ19-AJ18)*($AK$8-AJ18)+AK18</f>
-        <v>16.231818048275187</v>
+        <v>672.8953691028139</v>
       </c>
       <c r="AN18">
         <f>IFERROR(AL22,0)</f>
-        <v>29.034041429342423</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>0.15</v>
@@ -8029,19 +8139,19 @@
       <c r="AF19" s="27"/>
       <c r="AI19">
         <f>AI18+1</f>
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="AJ19">
         <f>INDEX($G$3:$H$102,$AI19,1)</f>
-        <v>5.4104060956307952E-2</v>
+        <v>4.663529933884897</v>
       </c>
       <c r="AK19">
         <f>INDEX($G$3:$H$102,$AI19,2)</f>
-        <v>16.210425982253568</v>
+        <v>706.24528554248218</v>
       </c>
       <c r="AN19">
         <f>IFERROR(AL24,0)</f>
-        <v>42.347453124591439</v>
+        <v>0</v>
       </c>
       <c r="AO19">
         <v>0.125</v>
@@ -8142,23 +8252,23 @@
       <c r="AF20" s="27"/>
       <c r="AI20">
         <f>MATCH($AK$8,$I$3:$I$94,1)</f>
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="AJ20">
         <f>INDEX($I$3:$J$94,$AI20,1)</f>
-        <v>0.05</v>
+        <v>4.1352090851952594</v>
       </c>
       <c r="AK20">
         <f>INDEX($I$3:$J$94,$AI20,2)</f>
-        <v>22.156148162414272</v>
-      </c>
-      <c r="AL20">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="e">
         <f>(AK21-AK20)/(AJ21-AJ20)*($AK$8-AJ20)+AK20</f>
-        <v>22.156148162414272</v>
+        <v>#REF!</v>
       </c>
       <c r="AN20">
         <f>IFERROR(AL26,0)</f>
-        <v>64.664736942432171</v>
+        <v>0</v>
       </c>
       <c r="AO20">
         <v>0.1</v>
@@ -8259,19 +8369,19 @@
       <c r="AF21" s="27"/>
       <c r="AI21">
         <f>AI20+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ21">
+        <v>93</v>
+      </c>
+      <c r="AJ21" t="e">
         <f>INDEX($I$3:$J$94,$AI21,1)</f>
-        <v>5.2965648078858354E-2</v>
-      </c>
-      <c r="AK21">
+        <v>#REF!</v>
+      </c>
+      <c r="AK21" t="e">
         <f>INDEX($I$3:$J$94,$AI21,2)</f>
-        <v>22.151011176811359</v>
+        <v>#REF!</v>
       </c>
       <c r="AN21">
         <f>IFERROR(AL28,0)</f>
-        <v>89.721150597791976</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>8.5000000000000006E-2</v>
@@ -8372,23 +8482,23 @@
       <c r="AF22" s="27"/>
       <c r="AI22">
         <f>MATCH($AK$8,$K$3:$K$78,1)</f>
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="AJ22">
         <f>INDEX($K$3:$L$78,$AI22,1)</f>
-        <v>0.05</v>
+        <v>3.0298474119450272</v>
       </c>
       <c r="AK22">
         <f>INDEX($K$3:$L$78,$AI22,2)</f>
-        <v>29.034041429342423</v>
-      </c>
-      <c r="AL22">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="e">
         <f>(AK23-AK22)/(AJ23-AJ22)*($AK$8-AJ22)+AK22</f>
-        <v>29.034041429342423</v>
+        <v>#REF!</v>
       </c>
       <c r="AN22">
         <f>IFERROR(AL30,0)</f>
-        <v>110.81129943414297</v>
+        <v>0</v>
       </c>
       <c r="AO22">
         <v>7.4999999999999997E-2</v>
@@ -8485,19 +8595,19 @@
       <c r="AF23" s="27"/>
       <c r="AI23">
         <f>AI22+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ23">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="e">
         <f>INDEX($K$3:$L$78,$AI23,1)</f>
-        <v>5.4923731281415915E-2</v>
-      </c>
-      <c r="AK23">
+        <v>#REF!</v>
+      </c>
+      <c r="AK23" t="e">
         <f>INDEX($K$3:$L$78,$AI23,2)</f>
-        <v>29.022290580376623</v>
+        <v>#REF!</v>
       </c>
       <c r="AN23">
         <f>IFERROR(AL32,0)</f>
-        <v>155.31163397677494</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <v>6.5000000000000002E-2</v>
@@ -8594,23 +8704,23 @@
       <c r="AF24" s="27"/>
       <c r="AI24">
         <f>MATCH($AK$8,$M$3:$M$72,1)</f>
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="AJ24">
         <f>INDEX($M$3:$N$72,$AI24,1)</f>
-        <v>0.05</v>
+        <v>2.1515427687894384</v>
       </c>
       <c r="AK24">
         <f>INDEX($M$3:$N$72,$AI24,2)</f>
-        <v>42.347453124591439</v>
-      </c>
-      <c r="AL24">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="e">
         <f>(AK25-AK24)/(AJ25-AJ24)*($AK$8-AJ24)+AK24</f>
-        <v>42.347453124591439</v>
+        <v>#REF!</v>
       </c>
       <c r="AN24">
         <f>IFERROR(AL34,0)</f>
-        <v>210.9166558108476</v>
+        <v>0</v>
       </c>
       <c r="AO24">
         <v>5.5E-2</v>
@@ -8707,19 +8817,19 @@
       <c r="AF25" s="27"/>
       <c r="AI25">
         <f>AI24+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ25">
+        <v>71</v>
+      </c>
+      <c r="AJ25" t="e">
         <f>INDEX($M$3:$N$72,$AI25,1)</f>
-        <v>5.3012615637720598E-2</v>
-      </c>
-      <c r="AK25">
+        <v>#REF!</v>
+      </c>
+      <c r="AK25" t="e">
         <f>INDEX($M$3:$N$72,$AI25,2)</f>
-        <v>42.335804409456372</v>
+        <v>#REF!</v>
       </c>
       <c r="AN25">
         <f>IFERROR(AL36,0)</f>
-        <v>318.48438721399742</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>4.4999999999999998E-2</v>
@@ -8816,23 +8926,23 @@
       <c r="AF26" s="27"/>
       <c r="AI26">
         <f>MATCH($AK$8,$O$3:$O$63,1)</f>
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="AJ26">
         <f>INDEX($O$3:$P$63,$AI26,1)</f>
-        <v>0.05</v>
+        <v>1.3398801972217522</v>
       </c>
       <c r="AK26">
         <f>INDEX($O$3:$P$63,$AI26,2)</f>
-        <v>64.664736942432171</v>
-      </c>
-      <c r="AL26">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="e">
         <f>(AK27-AK26)/(AJ27-AJ26)*($AK$8-AJ26)+AK26</f>
-        <v>64.664736942432171</v>
+        <v>#REF!</v>
       </c>
       <c r="AN26">
         <f>IFERROR(AL38,0)</f>
-        <v>398.62754808960227</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>0.04</v>
@@ -8929,19 +9039,19 @@
       <c r="AF27" s="27"/>
       <c r="AI27">
         <f>AI26+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ27">
+        <v>62</v>
+      </c>
+      <c r="AJ27" t="e">
         <f>INDEX($O$3:$P$63,$AI27,1)</f>
-        <v>5.327664913280148E-2</v>
-      </c>
-      <c r="AK27">
+        <v>#REF!</v>
+      </c>
+      <c r="AK27" t="e">
         <f>INDEX($O$3:$P$63,$AI27,2)</f>
-        <v>64.713437002161015</v>
+        <v>#REF!</v>
       </c>
       <c r="AN27">
         <f>IFERROR(AL40,0)</f>
-        <v>529.30454995644266</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>3.5000000000000003E-2</v>
@@ -9038,23 +9148,23 @@
       <c r="AF28" s="27"/>
       <c r="AI28">
         <f>MATCH($AK$8,$Q$3:$Q$59,1)</f>
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="AJ28">
         <f>INDEX($Q$3:$R$59,$AI28,1)</f>
-        <v>0.05</v>
+        <v>0.96892278663414011</v>
       </c>
       <c r="AK28">
         <f>INDEX($Q$3:$R$59,$AI28,2)</f>
-        <v>89.721150597791976</v>
-      </c>
-      <c r="AL28">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="e">
         <f>(AK29-AK28)/(AJ29-AJ28)*($AK$8-AJ28)+AK28</f>
-        <v>89.721150597791976</v>
+        <v>#REF!</v>
       </c>
       <c r="AN28">
         <f>IFERROR(AL42,0)</f>
-        <v>723.22884559455485</v>
+        <v>0</v>
       </c>
       <c r="AO28">
         <v>0.03</v>
@@ -9151,15 +9261,15 @@
       <c r="AF29" s="27"/>
       <c r="AI29">
         <f>AI28+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ29">
+        <v>58</v>
+      </c>
+      <c r="AJ29" t="e">
         <f>INDEX($O$3:$P$59,$AI29,1)</f>
-        <v>5.327664913280148E-2</v>
-      </c>
-      <c r="AK29">
+        <v>#REF!</v>
+      </c>
+      <c r="AK29" t="e">
         <f>INDEX($Q$3:$R$59,$AI29,2)</f>
-        <v>89.606427872218035</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9249,19 +9359,19 @@
       <c r="AF30" s="27"/>
       <c r="AI30">
         <f>MATCH($AK$8,$S$3:$S$55,1)</f>
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="AJ30">
         <f>INDEX($S$3:$T$55,$AI30,1)</f>
-        <v>0.05</v>
+        <v>0.73993623431920019</v>
       </c>
       <c r="AK30">
         <f>INDEX($S$3:$T$55,$AI30,2)</f>
-        <v>110.81129943414297</v>
-      </c>
-      <c r="AL30">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="e">
         <f>(AK31-AK30)/(AJ31-AJ30)*($AK$8-AJ30)+AK30</f>
-        <v>110.81129943414297</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -9347,15 +9457,15 @@
       <c r="AF31" s="27"/>
       <c r="AI31">
         <f>AI30+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ31">
+        <v>54</v>
+      </c>
+      <c r="AJ31" t="e">
         <f>INDEX($S$3:$T$55,$AI31,1)</f>
-        <v>5.3486813333859302E-2</v>
-      </c>
-      <c r="AK31">
+        <v>#REF!</v>
+      </c>
+      <c r="AK31" t="e">
         <f>INDEX($S$3:$T$55,$AI31,2)</f>
-        <v>110.66613005018682</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -9441,19 +9551,19 @@
       <c r="AF32" s="27"/>
       <c r="AI32">
         <f>MATCH($AK$8,$U$3:$U$39,1)</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AJ32">
         <f>INDEX($U$3:$V$39,$AI32,1)</f>
-        <v>0.05</v>
+        <v>0.55209201939587849</v>
       </c>
       <c r="AK32">
         <f>INDEX($U$3:$V$39,$AI32,2)</f>
-        <v>155.31163397677494</v>
-      </c>
-      <c r="AL32">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="e">
         <f>(AK33-AK32)/(AJ33-AJ32)*($AK$8-AJ32)+AK32</f>
-        <v>155.31163397677494</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9539,15 +9649,15 @@
       <c r="AF33" s="27"/>
       <c r="AI33">
         <f>AI32+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ33">
+        <v>38</v>
+      </c>
+      <c r="AJ33" t="e">
         <f>INDEX($U$3:$V$39,$AI33,1)</f>
-        <v>5.3429410908936589E-2</v>
-      </c>
-      <c r="AK33">
+        <v>#REF!</v>
+      </c>
+      <c r="AK33" t="e">
         <f>INDEX($U$3:$V$39,$AI33,2)</f>
-        <v>154.79934257732464</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9629,19 +9739,19 @@
       <c r="AF34" s="27"/>
       <c r="AI34">
         <f>MATCH($AK$8,$W$3:$W$33,1)</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AJ34">
         <f>INDEX($W$3:$X$33,$AI34,1)</f>
-        <v>0.05</v>
+        <v>0.38343557223340058</v>
       </c>
       <c r="AK34">
         <f>INDEX($W$3:$X$33,$AI34,2)</f>
-        <v>210.9166558108476</v>
-      </c>
-      <c r="AL34">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="e">
         <f>(AK35-AK34)/(AJ35-AJ34)*($AK$8-AJ34)+AK34</f>
-        <v>210.9166558108476</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
@@ -9717,15 +9827,15 @@
       <c r="AF35" s="27"/>
       <c r="AI35">
         <f>AI34+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ35">
+        <v>32</v>
+      </c>
+      <c r="AJ35" t="e">
         <f>INDEX($W$3:$X$33,$AI35,1)</f>
-        <v>5.6420506371004792E-2</v>
-      </c>
-      <c r="AK35">
+        <v>#REF!</v>
+      </c>
+      <c r="AK35" t="e">
         <f>INDEX($W$3:$X$33,$AI35,2)</f>
-        <v>210.81969207968876</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
@@ -9801,19 +9911,19 @@
       <c r="AF36" s="27"/>
       <c r="AI36">
         <f>MATCH($AK$8,$Y$3:$Y$30,1)</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AJ36">
         <f>INDEX($Y$3:$Z$30,$AI36,1)</f>
-        <v>0.05</v>
+        <v>0.25089818299928995</v>
       </c>
       <c r="AK36">
         <f>INDEX($Y$3:$Z$30,$AI36,2)</f>
-        <v>318.48438721399742</v>
-      </c>
-      <c r="AL36">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="e">
         <f>(AK37-AK36)/(AJ37-AJ36)*($AK$8-AJ36)+AK36</f>
-        <v>318.48438721399742</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
@@ -9891,15 +10001,15 @@
       <c r="AF37" s="27"/>
       <c r="AI37">
         <f>AI36+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ37">
+        <v>29</v>
+      </c>
+      <c r="AJ37" t="e">
         <f>INDEX($Y$3:$Z$30,$AI37,1)</f>
-        <v>5.4292213338326185E-2</v>
-      </c>
-      <c r="AK37">
+        <v>#REF!</v>
+      </c>
+      <c r="AK37" t="e">
         <f>INDEX($Y$3:$Z$30,$AI37,2)</f>
-        <v>318.7117167694895</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
@@ -9977,19 +10087,19 @@
       <c r="AF38" s="27"/>
       <c r="AI38">
         <f>MATCH($AK$8,$AA$3:$AA$29,1)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AJ38">
         <f>INDEX($AA$3:$AB$29,$AI38,1)</f>
-        <v>0.05</v>
+        <v>0.19179676818501704</v>
       </c>
       <c r="AK38">
         <f>INDEX($AA$3:$AB$29,$AI38,2)</f>
-        <v>398.62754808960227</v>
-      </c>
-      <c r="AL38">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="e">
         <f>(AK39-AK38)/(AJ39-AJ38)*($AK$8-AJ38)+AK38</f>
-        <v>398.62754808960227</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10067,15 +10177,15 @@
       <c r="AF39" s="27"/>
       <c r="AI39">
         <f>AI38+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ39">
+        <v>28</v>
+      </c>
+      <c r="AJ39" t="e">
         <f>INDEX($AA$3:$AB$29,$AI39,1)</f>
-        <v>5.2883053729696997E-2</v>
-      </c>
-      <c r="AK39">
+        <v>#REF!</v>
+      </c>
+      <c r="AK39" t="e">
         <f>INDEX($AA$3:$AB$29,$AI39,2)</f>
-        <v>398.53199218839194</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
@@ -10149,19 +10259,19 @@
       <c r="AF40" s="27"/>
       <c r="AI40">
         <f>MATCH($AK$8,$AC$3:$AC$22,1)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AJ40">
         <f>INDEX($AC$3:$AD$22,$AI40,1)</f>
-        <v>0.05</v>
+        <v>0.13869604075868699</v>
       </c>
       <c r="AK40">
         <f>INDEX($AC$3:$AD$22,$AI40,2)</f>
-        <v>529.30454995644266</v>
-      </c>
-      <c r="AL40">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="e">
         <f>(AK41-AK40)/(AJ41-AJ40)*($AK$8-AJ40)+AK40</f>
-        <v>529.30454995644266</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
@@ -10235,15 +10345,15 @@
       <c r="AF41" s="27"/>
       <c r="AI41">
         <f>AI40+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ41">
+        <v>21</v>
+      </c>
+      <c r="AJ41" t="e">
         <f>INDEX($AC$3:$AD$22,$AI41,1)</f>
-        <v>5.3362980948725158E-2</v>
-      </c>
-      <c r="AK41">
+        <v>#REF!</v>
+      </c>
+      <c r="AK41" t="e">
         <f>INDEX($AC$3:$AD$22,$AI41,2)</f>
-        <v>529.18390850587434</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
@@ -10317,19 +10427,19 @@
       <c r="AF42" s="27"/>
       <c r="AI42">
         <f>MATCH($AK$8,$AE$3:$AE$13,1)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AJ42">
         <f>INDEX($AE$3:$AF$13,$AI42,1)</f>
-        <v>0.05</v>
+        <v>8.87608201716103E-2</v>
       </c>
       <c r="AK42">
         <f>INDEX($AE$3:$AF$13,$AI42,2)</f>
-        <v>723.22884559455485</v>
-      </c>
-      <c r="AL42">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="e">
         <f>(AK43-AK42)/(AJ43-AJ42)*($AK$8-AJ42)+AK42</f>
-        <v>723.22884559455485</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
@@ -10403,15 +10513,15 @@
       <c r="AF43" s="27"/>
       <c r="AI43">
         <f>AI42+1</f>
-        <v>2</v>
-      </c>
-      <c r="AJ43">
+        <v>12</v>
+      </c>
+      <c r="AJ43" t="e">
         <f>INDEX($AE$3:$AF$13,$AI43,1)</f>
-        <v>5.3144592401910086E-2</v>
-      </c>
-      <c r="AK43">
+        <v>#REF!</v>
+      </c>
+      <c r="AK43" t="e">
         <f>INDEX($AE$3:$AF$13,$AI43,2)</f>
-        <v>731.22314895555587</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
@@ -13561,7 +13671,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13571,17 +13681,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="38">
-        <v>0.05</v>
+        <v>4.5454502105712891</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13589,7 +13699,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="35">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13597,7 +13707,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="35">
-        <v>500</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13606,7 +13716,7 @@
       </c>
       <c r="B5" s="36">
         <f>Sheet1!U4</f>
-        <v>0.27424773662347413</v>
+        <v>0.48923686695402757</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13615,7 +13725,7 @@
       </c>
       <c r="B6" s="36">
         <f>Sheet2!AK10</f>
-        <v>3.6121258887860927E-2</v>
+        <v>0.37559977060453675</v>
       </c>
     </row>
   </sheetData>
